--- a/data/external/Data for Figure 3D.xlsx
+++ b/data/external/Data for Figure 3D.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Albi/Dropbox/Roth Lab/projects/bc_pca_git/data/external/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="0" windowWidth="17160" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="49900" yWindow="-2440" windowWidth="17160" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="99">
   <si>
     <t>SFT2</t>
   </si>
@@ -308,6 +316,15 @@
   <si>
     <t>methionine</t>
   </si>
+  <si>
+    <t>Note the delta is artificial, there is a depletion bias here but no significantly changed interactions.  I added the -1 to make the heatmap function work without re-making this table</t>
+  </si>
+  <si>
+    <t>Note the delta is artificial, there is a depletion bias here not reflected in the delta.  I added the -1 to make the heatmap function work without re-making this table</t>
+  </si>
+  <si>
+    <t>Note the delta is artificial, there is an accumulation bias here not reflected in the delta.  I added the 1 to make the heatmap function work without re-making this table</t>
+  </si>
 </sst>
 </file>
 
@@ -384,6 +401,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -709,13 +731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1037"/>
+  <dimension ref="A1:H1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1016" workbookViewId="0">
-      <selection activeCell="G1037" sqref="A1:G1037"/>
+    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="E505" sqref="E505"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -724,7 +746,7 @@
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -747,7 +769,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -770,7 +792,7 @@
         <v>0.96791527196652705</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -793,7 +815,7 @@
         <v>0.41026370757180203</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -816,7 +838,7 @@
         <v>0.99283365949119395</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -839,7 +861,7 @@
         <v>0.33291131498470899</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -862,7 +884,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -885,7 +907,7 @@
         <v>0.970123301985371</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -908,7 +930,7 @@
         <v>0.229495</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -931,7 +953,7 @@
         <v>0.62903750000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -954,7 +976,7 @@
         <v>0.249522962962963</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -977,7 +999,7 @@
         <v>0.66280336134453799</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1000,7 +1022,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1023,7 +1045,7 @@
         <v>0.88119135802469095</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1046,7 +1068,7 @@
         <v>0.92002083333333295</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1069,7 +1091,7 @@
         <v>0.49579310344827598</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1114,7 @@
         <v>0.96077695560253695</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1115,7 +1137,7 @@
         <v>0.84001902173913001</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1138,7 +1160,7 @@
         <v>0.814264285714286</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1161,7 +1183,7 @@
         <v>4.0182621359223299E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1184,7 +1206,7 @@
         <v>0.937940724478595</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1207,7 +1229,7 @@
         <v>0.17040929203539801</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1230,7 +1252,7 @@
         <v>6.8747686567164207E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1253,7 +1275,7 @@
         <v>6.0273114754098397E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1276,7 +1298,7 @@
         <v>9.2790350877193003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1299,7 +1321,7 @@
         <v>0.25861050724637702</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1322,7 +1344,7 @@
         <v>0.79844363103953198</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1345,7 +1367,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1368,7 +1390,7 @@
         <v>0.16705866666666699</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1391,7 +1413,7 @@
         <v>0.20911204819277099</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1414,7 +1436,7 @@
         <v>0.44704705882352902</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1437,7 +1459,7 @@
         <v>0.64624149659863905</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1460,7 +1482,7 @@
         <v>0.29957009966777398</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1483,7 +1505,7 @@
         <v>0.45852391799544401</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1506,7 +1528,7 @@
         <v>0.74592631578947399</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1529,7 +1551,7 @@
         <v>0.97710526315789503</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1552,7 +1574,7 @@
         <v>0.38935714285714301</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1575,7 +1597,7 @@
         <v>0.987382789317507</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1598,7 +1620,7 @@
         <v>8.1475333333333302E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1621,7 +1643,7 @@
         <v>0.39202688172042999</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1644,7 +1666,7 @@
         <v>0.53198599999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1667,7 +1689,7 @@
         <v>9.9075294117647095E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1690,7 +1712,7 @@
         <v>0.18598193277310901</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1713,7 +1735,7 @@
         <v>0.337177710843374</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1736,7 +1758,7 @@
         <v>0.35331195335276999</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1759,7 +1781,7 @@
         <v>0.62689407540395004</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1782,7 +1804,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1805,7 +1827,7 @@
         <v>8.9700000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1828,7 +1850,7 @@
         <v>7.2476857142857107E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1851,7 +1873,7 @@
         <v>0.987382789317507</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1874,7 +1896,7 @@
         <v>0.49579310344827598</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1897,7 +1919,7 @@
         <v>0.68137499999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1920,7 +1942,7 @@
         <v>0.29219360269360301</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1943,7 +1965,7 @@
         <v>0.72929601226993901</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1966,7 +1988,7 @@
         <v>0.83151586206896499</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1989,7 +2011,7 @@
         <v>0.84656274768824302</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2012,7 +2034,7 @@
         <v>0.80703473227207001</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2035,7 +2057,7 @@
         <v>0.10325215053763399</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2058,7 +2080,7 @@
         <v>0.88801676646706595</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2081,7 +2103,7 @@
         <v>0.71248124999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2104,7 +2126,7 @@
         <v>0.24886479400749101</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2127,7 +2149,7 @@
         <v>9.3932926829268307E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2150,7 +2172,7 @@
         <v>0.86088703465981997</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2173,7 +2195,7 @@
         <v>0.39267647058823502</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2196,7 +2218,7 @@
         <v>0.86088703465981997</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2219,7 +2241,7 @@
         <v>0.74267170953101402</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2242,7 +2264,7 @@
         <v>3.8537920792079197E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2265,7 +2287,7 @@
         <v>0.32618553459119498</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2288,7 +2310,7 @@
         <v>0.86088703465981997</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2311,7 +2333,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2334,7 +2356,7 @@
         <v>0.55450190114068398</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2357,7 +2379,7 @@
         <v>0.83925375170532002</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2380,7 +2402,7 @@
         <v>0.31564664536741199</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2403,7 +2425,7 @@
         <v>0.81547301136363604</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2426,7 +2448,7 @@
         <v>0.827624301675978</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2449,7 +2471,7 @@
         <v>0.94919696969696998</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -2472,7 +2494,7 @@
         <v>0.14802300469483601</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -2495,7 +2517,7 @@
         <v>0.81547301136363604</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -2518,7 +2540,7 @@
         <v>0.74310120845921401</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2541,7 +2563,7 @@
         <v>0.98592000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2564,7 +2586,7 @@
         <v>0.90716336056009295</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2587,7 +2609,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -2610,7 +2632,7 @@
         <v>0.73625114155251103</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2633,7 +2655,7 @@
         <v>0.85136422976501303</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2656,7 +2678,7 @@
         <v>0.82043626062322905</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2679,7 +2701,7 @@
         <v>0.95875348338692401</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -2702,7 +2724,7 @@
         <v>0.16349103139013499</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -2725,7 +2747,7 @@
         <v>0.94141666666666701</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -2748,7 +2770,7 @@
         <v>0.90716336056009295</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -2771,7 +2793,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2794,7 +2816,7 @@
         <v>0.84200397350993395</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -2817,7 +2839,7 @@
         <v>0.92669367369589295</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -2840,7 +2862,7 @@
         <v>0.82449295774647902</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -2863,7 +2885,7 @@
         <v>0.55193857965451099</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -2886,7 +2908,7 @@
         <v>0.7268</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -2909,7 +2931,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -2932,7 +2954,7 @@
         <v>0.87714842767295598</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -2955,7 +2977,7 @@
         <v>0.69009191759112498</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -2978,7 +3000,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -3001,7 +3023,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>24</v>
       </c>
@@ -3024,7 +3046,7 @@
         <v>0.67855357142857098</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>25</v>
       </c>
@@ -3047,7 +3069,7 @@
         <v>0.51244989775051097</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -3070,7 +3092,7 @@
         <v>0.83205364511691904</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -3093,7 +3115,7 @@
         <v>0.88638386308068495</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -3116,7 +3138,7 @@
         <v>7.3972727272727301E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>29</v>
       </c>
@@ -3139,7 +3161,7 @@
         <v>0.68466666666666698</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -3162,7 +3184,7 @@
         <v>0.84951055408970999</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>31</v>
       </c>
@@ -3185,7 +3207,7 @@
         <v>0.53198599999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>32</v>
       </c>
@@ -3208,7 +3230,7 @@
         <v>0.99283365949119395</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>33</v>
       </c>
@@ -3231,7 +3253,7 @@
         <v>0.45877324263038499</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>34</v>
       </c>
@@ -3254,7 +3276,7 @@
         <v>0.92014450867052</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>35</v>
       </c>
@@ -3277,7 +3299,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>36</v>
       </c>
@@ -3300,7 +3322,7 @@
         <v>0.24957610294117599</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -3323,7 +3345,7 @@
         <v>0.84632407407407395</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>38</v>
       </c>
@@ -3346,7 +3368,7 @@
         <v>0.27458736842105302</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>39</v>
       </c>
@@ -3369,7 +3391,7 @@
         <v>0.25861050724637702</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>40</v>
       </c>
@@ -3392,7 +3414,7 @@
         <v>0.68137499999999995</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>41</v>
       </c>
@@ -3415,7 +3437,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>42</v>
       </c>
@@ -3438,7 +3460,7 @@
         <v>0.98059939759036097</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -3461,7 +3483,7 @@
         <v>0.50822792607802902</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>44</v>
       </c>
@@ -3484,7 +3506,7 @@
         <v>0.15939411764705899</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>45</v>
       </c>
@@ -3507,7 +3529,7 @@
         <v>0.10325215053763399</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>46</v>
       </c>
@@ -3530,7 +3552,7 @@
         <v>0.30574295081967201</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>47</v>
       </c>
@@ -3553,7 +3575,7 @@
         <v>3.6972E-7</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>48</v>
       </c>
@@ -3576,7 +3598,7 @@
         <v>0.49563913043478303</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>49</v>
       </c>
@@ -3599,7 +3621,7 @@
         <v>0.82275881523272199</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>50</v>
       </c>
@@ -3622,7 +3644,7 @@
         <v>0.85021024967148495</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>51</v>
       </c>
@@ -3645,7 +3667,7 @@
         <v>0.98722542204567998</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>52</v>
       </c>
@@ -3668,7 +3690,7 @@
         <v>0.71874027993779199</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>53</v>
       </c>
@@ -3691,7 +3713,7 @@
         <v>0.18598193277310901</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>54</v>
       </c>
@@ -3714,7 +3736,7 @@
         <v>0.97848844221105502</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>55</v>
       </c>
@@ -3737,7 +3759,7 @@
         <v>0.87973690773067303</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>56</v>
       </c>
@@ -3760,7 +3782,7 @@
         <v>7.4885416666666704E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>57</v>
       </c>
@@ -3783,7 +3805,7 @@
         <v>0.80639622641509401</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>58</v>
       </c>
@@ -3806,7 +3828,7 @@
         <v>0.45197465437787998</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -3829,7 +3851,7 @@
         <v>0.53947470817120602</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>60</v>
       </c>
@@ -3852,7 +3874,7 @@
         <v>0.74592631578947399</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>61</v>
       </c>
@@ -3875,7 +3897,7 @@
         <v>0.13376048780487801</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>62</v>
       </c>
@@ -3898,7 +3920,7 @@
         <v>0.68137499999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>63</v>
       </c>
@@ -3921,7 +3943,7 @@
         <v>0.97824343434343397</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>64</v>
       </c>
@@ -3944,7 +3966,7 @@
         <v>1.6521304347826098E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>65</v>
       </c>
@@ -3967,7 +3989,7 @@
         <v>0.85362757731958805</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>66</v>
       </c>
@@ -3990,7 +4012,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>67</v>
       </c>
@@ -4013,7 +4035,7 @@
         <v>0.90716336056009295</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>68</v>
       </c>
@@ -4036,7 +4058,7 @@
         <v>0.54335465116279102</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>69</v>
       </c>
@@ -4059,7 +4081,7 @@
         <v>4.1559906542056102E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>70</v>
       </c>
@@ -4082,7 +4104,7 @@
         <v>0.81180491329479798</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>71</v>
       </c>
@@ -4105,7 +4127,7 @@
         <v>0.881371146732429</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>72</v>
       </c>
@@ -4128,7 +4150,7 @@
         <v>0.87789862327909896</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>73</v>
       </c>
@@ -4151,7 +4173,7 @@
         <v>0.87528409090909098</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -4174,7 +4196,7 @@
         <v>0.76948813056379795</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -4197,7 +4219,7 @@
         <v>0.87490000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -4220,7 +4242,7 @@
         <v>0.27423085106382999</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>3</v>
       </c>
@@ -4243,7 +4265,7 @@
         <v>0.44404106280193201</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -4266,7 +4288,7 @@
         <v>0.96416666666666695</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -4289,7 +4311,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4312,7 +4334,7 @@
         <v>0.53947470817120602</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -4335,7 +4357,7 @@
         <v>1.2853546875E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -4358,7 +4380,7 @@
         <v>0.72883870967741904</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -4381,7 +4403,7 @@
         <v>0.28543517241379301</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -4404,7 +4426,7 @@
         <v>0.15237813953488399</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -4427,7 +4449,7 @@
         <v>1.6521304347826098E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -4450,7 +4472,7 @@
         <v>0.97059481865285002</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -4473,7 +4495,7 @@
         <v>0.82845618915159902</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -4496,7 +4518,7 @@
         <v>1.54816417910448E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -4519,7 +4541,7 @@
         <v>0.144072037914692</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>16</v>
       </c>
@@ -4542,7 +4564,7 @@
         <v>0.177511637931034</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -4565,7 +4587,7 @@
         <v>0.88119135802469095</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>18</v>
       </c>
@@ -4588,7 +4610,7 @@
         <v>0.45197465437787998</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -4611,7 +4633,7 @@
         <v>0.11422755102040801</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -4634,7 +4656,7 @@
         <v>0.52495740365111598</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -4657,7 +4679,7 @@
         <v>4.1079999999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>22</v>
       </c>
@@ -4680,7 +4702,7 @@
         <v>3.0019999999999998E-4</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>23</v>
       </c>
@@ -4703,7 +4725,7 @@
         <v>0.720646058732612</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>24</v>
       </c>
@@ -4726,7 +4748,7 @@
         <v>0.44404106280193201</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>25</v>
       </c>
@@ -4749,7 +4771,7 @@
         <v>5.9943265306122403E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>26</v>
       </c>
@@ -4772,7 +4794,7 @@
         <v>0.92205970149253702</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>27</v>
       </c>
@@ -4795,7 +4817,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>28</v>
       </c>
@@ -4818,7 +4840,7 @@
         <v>0.172213100436681</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>29</v>
       </c>
@@ -4841,7 +4863,7 @@
         <v>0.66602475247524795</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -4864,7 +4886,7 @@
         <v>2.5925487804878002E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -4887,7 +4909,7 @@
         <v>7.3047183098591498E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -4910,7 +4932,7 @@
         <v>0.50608865979381401</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>33</v>
       </c>
@@ -4933,7 +4955,7 @@
         <v>0.90716336056009295</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>34</v>
       </c>
@@ -4956,7 +4978,7 @@
         <v>0.88083044554455403</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>35</v>
       </c>
@@ -4979,7 +5001,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>36</v>
       </c>
@@ -5002,7 +5024,7 @@
         <v>0.36657790368271997</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>37</v>
       </c>
@@ -5025,7 +5047,7 @@
         <v>0.18864142259414199</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>38</v>
       </c>
@@ -5048,7 +5070,7 @@
         <v>0.34436498516320502</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>39</v>
       </c>
@@ -5071,7 +5093,7 @@
         <v>0.62175135135135096</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>40</v>
       </c>
@@ -5094,7 +5116,7 @@
         <v>0.27458736842105302</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>41</v>
       </c>
@@ -5117,7 +5139,7 @@
         <v>9.9075294117647095E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>42</v>
       </c>
@@ -5140,7 +5162,7 @@
         <v>6.9624558823529401E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>43</v>
       </c>
@@ -5163,7 +5185,7 @@
         <v>0.67407328990227999</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>44</v>
       </c>
@@ -5186,7 +5208,7 @@
         <v>3.2959534883720901E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>45</v>
       </c>
@@ -5209,7 +5231,7 @@
         <v>0.267240860215054</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>46</v>
       </c>
@@ -5232,7 +5254,7 @@
         <v>0.73825379939209701</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>47</v>
       </c>
@@ -5255,7 +5277,7 @@
         <v>8.1693181818181799E-5</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>48</v>
       </c>
@@ -5278,7 +5300,7 @@
         <v>0.332735202492212</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>49</v>
       </c>
@@ -5301,7 +5323,7 @@
         <v>0.44301960784313699</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>50</v>
       </c>
@@ -5324,7 +5346,7 @@
         <v>0.13376048780487801</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>51</v>
       </c>
@@ -5347,7 +5369,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>52</v>
       </c>
@@ -5370,7 +5392,7 @@
         <v>0.13395652173913</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>53</v>
       </c>
@@ -5393,7 +5415,7 @@
         <v>0.814264285714286</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>54</v>
       </c>
@@ -5416,7 +5438,7 @@
         <v>7.2284999999999997E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>55</v>
       </c>
@@ -5439,7 +5461,7 @@
         <v>0.48033407572383102</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>56</v>
       </c>
@@ -5462,7 +5484,7 @@
         <v>3.6972E-7</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>57</v>
       </c>
@@ -5485,7 +5507,7 @@
         <v>0.34634897360703798</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>58</v>
       </c>
@@ -5508,7 +5530,7 @@
         <v>0.55450190114068398</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>59</v>
       </c>
@@ -5531,7 +5553,7 @@
         <v>0.172213100436681</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>60</v>
       </c>
@@ -5554,7 +5576,7 @@
         <v>0.66602475247524795</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>61</v>
       </c>
@@ -5577,7 +5599,7 @@
         <v>3.7656666666666702E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>62</v>
       </c>
@@ -5600,7 +5622,7 @@
         <v>2.7123333333333301E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>63</v>
       </c>
@@ -5623,7 +5645,7 @@
         <v>4.1507916666666702E-6</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>64</v>
       </c>
@@ -5646,7 +5668,7 @@
         <v>3.1703043478260903E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>65</v>
       </c>
@@ -5669,7 +5691,7 @@
         <v>0.44301960784313699</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>66</v>
       </c>
@@ -5692,7 +5714,7 @@
         <v>0.814264285714286</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>67</v>
       </c>
@@ -5715,7 +5737,7 @@
         <v>0.53947470817120602</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>68</v>
       </c>
@@ -5738,7 +5760,7 @@
         <v>2.63242528735632E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>69</v>
       </c>
@@ -5761,7 +5783,7 @@
         <v>0.47911383928571399</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>70</v>
       </c>
@@ -5784,7 +5806,7 @@
         <v>3.8537920792079197E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>71</v>
       </c>
@@ -5807,7 +5829,7 @@
         <v>0.116254314720812</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>72</v>
       </c>
@@ -5830,7 +5852,7 @@
         <v>0.878085</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>73</v>
       </c>
@@ -5853,7 +5875,7 @@
         <v>0.92063636363636403</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -5876,7 +5898,7 @@
         <v>0.951501621621622</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1</v>
       </c>
@@ -5899,7 +5921,7 @@
         <v>0.827624301675978</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>2</v>
       </c>
@@ -5922,7 +5944,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>3</v>
       </c>
@@ -5945,7 +5967,7 @@
         <v>0.73334709480122295</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -5968,7 +5990,7 @@
         <v>0.54720463320463297</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -5991,7 +6013,7 @@
         <v>0.41929198966408299</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -6014,7 +6036,7 @@
         <v>0.85136422976501303</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -6037,7 +6059,7 @@
         <v>0.44704705882352902</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -6060,7 +6082,7 @@
         <v>0.64624149659863905</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -6083,7 +6105,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -6106,7 +6128,7 @@
         <v>0.95166450916936396</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -6129,7 +6151,7 @@
         <v>0.86636666666666695</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>12</v>
       </c>
@@ -6152,7 +6174,7 @@
         <v>0.63806631762652699</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -6175,7 +6197,7 @@
         <v>0.44704705882352902</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -6198,7 +6220,7 @@
         <v>0.44704705882352902</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>15</v>
       </c>
@@ -6221,7 +6243,7 @@
         <v>0.67291993464052302</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>16</v>
       </c>
@@ -6244,7 +6266,7 @@
         <v>0.49448148148148202</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -6267,7 +6289,7 @@
         <v>0.555398481973434</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>18</v>
       </c>
@@ -6290,7 +6312,7 @@
         <v>0.95514316469321803</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>19</v>
       </c>
@@ -6313,7 +6335,7 @@
         <v>8.8963057324840805E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>20</v>
       </c>
@@ -6336,7 +6358,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>21</v>
       </c>
@@ -6359,7 +6381,7 @@
         <v>0.133560591133005</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>22</v>
       </c>
@@ -6382,7 +6404,7 @@
         <v>0.10325215053763399</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>23</v>
       </c>
@@ -6405,7 +6427,7 @@
         <v>0.70616326530612294</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>24</v>
       </c>
@@ -6428,7 +6450,7 @@
         <v>0.44301960784313699</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>25</v>
       </c>
@@ -6451,7 +6473,7 @@
         <v>0.40972178477690302</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -6474,7 +6496,7 @@
         <v>2.73088636363636E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>27</v>
       </c>
@@ -6497,7 +6519,7 @@
         <v>6.00073553719008E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -6520,7 +6542,7 @@
         <v>0.33291131498470899</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>29</v>
       </c>
@@ -6543,7 +6565,7 @@
         <v>0.97705471124620002</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>30</v>
       </c>
@@ -6566,7 +6588,7 @@
         <v>0.987382789317507</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>31</v>
       </c>
@@ -6589,7 +6611,7 @@
         <v>0.44404106280193201</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>32</v>
       </c>
@@ -6612,7 +6634,7 @@
         <v>0.91594069767441899</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>33</v>
       </c>
@@ -6635,7 +6657,7 @@
         <v>0.88957586618876905</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>34</v>
       </c>
@@ -6658,7 +6680,7 @@
         <v>0.50490585774058605</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>35</v>
       </c>
@@ -6681,7 +6703,7 @@
         <v>0.62761111111111101</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>36</v>
       </c>
@@ -6704,7 +6726,7 @@
         <v>0.53947470817120602</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>37</v>
       </c>
@@ -6727,7 +6749,7 @@
         <v>0.63003900709219895</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>38</v>
       </c>
@@ -6750,7 +6772,7 @@
         <v>0.96538000000000002</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>39</v>
       </c>
@@ -6773,7 +6795,7 @@
         <v>0.45197465437787998</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>40</v>
       </c>
@@ -6796,7 +6818,7 @@
         <v>9.6550299401197595E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>41</v>
       </c>
@@ -6819,7 +6841,7 @@
         <v>0.26848714285714298</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>42</v>
       </c>
@@ -6842,7 +6864,7 @@
         <v>0.78045949926362301</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>43</v>
       </c>
@@ -6865,7 +6887,7 @@
         <v>0.18267489361702099</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>44</v>
       </c>
@@ -6888,7 +6910,7 @@
         <v>1.7444931506849299E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>45</v>
       </c>
@@ -6911,7 +6933,7 @@
         <v>0.15428447488584501</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>46</v>
       </c>
@@ -6934,7 +6956,7 @@
         <v>0.82072842998585605</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>47</v>
       </c>
@@ -6957,7 +6979,7 @@
         <v>8.2976158940397393E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>48</v>
       </c>
@@ -6980,7 +7002,7 @@
         <v>0.98587887887887904</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>49</v>
       </c>
@@ -7003,7 +7025,7 @@
         <v>0.44404106280193201</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>50</v>
       </c>
@@ -7026,7 +7048,7 @@
         <v>0.38153910614525099</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>51</v>
       </c>
@@ -7049,7 +7071,7 @@
         <v>0.84974440052700895</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>52</v>
       </c>
@@ -7072,7 +7094,7 @@
         <v>0.96035425531914898</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>53</v>
       </c>
@@ -7095,7 +7117,7 @@
         <v>0.64624149659863905</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>54</v>
       </c>
@@ -7118,7 +7140,7 @@
         <v>0.111258333333333</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>55</v>
       </c>
@@ -7141,7 +7163,7 @@
         <v>0.92702654867256595</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>56</v>
       </c>
@@ -7164,7 +7186,7 @@
         <v>0.59205783582089599</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>57</v>
       </c>
@@ -7187,7 +7209,7 @@
         <v>0.34436498516320502</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>58</v>
       </c>
@@ -7210,7 +7232,7 @@
         <v>0.21074039999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>59</v>
       </c>
@@ -7233,7 +7255,7 @@
         <v>0.97059481865285002</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>60</v>
       </c>
@@ -7256,7 +7278,7 @@
         <v>0.44704705882352902</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>61</v>
       </c>
@@ -7279,7 +7301,7 @@
         <v>0.90716336056009295</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>62</v>
       </c>
@@ -7302,7 +7324,7 @@
         <v>0.71874027993779199</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>63</v>
       </c>
@@ -7325,7 +7347,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>64</v>
       </c>
@@ -7348,7 +7370,7 @@
         <v>0.108133862433862</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>65</v>
       </c>
@@ -7371,7 +7393,7 @@
         <v>0.66602475247524795</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>66</v>
       </c>
@@ -7394,7 +7416,7 @@
         <v>0.38299723756906101</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>67</v>
       </c>
@@ -7417,7 +7439,7 @@
         <v>4.1507916666666702E-6</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>68</v>
       </c>
@@ -7440,7 +7462,7 @@
         <v>7.0103913043478294E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>69</v>
       </c>
@@ -7463,7 +7485,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>70</v>
       </c>
@@ -7486,7 +7508,7 @@
         <v>6.8747686567164207E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>71</v>
       </c>
@@ -7509,7 +7531,7 @@
         <v>7.3047183098591498E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>72</v>
       </c>
@@ -7532,7 +7554,7 @@
         <v>9.4344745762711905E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>73</v>
       </c>
@@ -7555,7 +7577,7 @@
         <v>0.88083044554455403</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -7578,7 +7600,7 @@
         <v>0.17739090909090899</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1</v>
       </c>
@@ -7601,7 +7623,7 @@
         <v>0.97059481865285002</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>2</v>
       </c>
@@ -7624,7 +7646,7 @@
         <v>0.93301874310915101</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>3</v>
       </c>
@@ -7647,7 +7669,7 @@
         <v>0.96772927597061897</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -7670,7 +7692,7 @@
         <v>0.96538000000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>5</v>
       </c>
@@ -7693,7 +7715,7 @@
         <v>0.96410031678986297</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -7716,7 +7738,7 @@
         <v>0.984808617234469</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -7739,7 +7761,7 @@
         <v>0.827624301675978</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>8</v>
       </c>
@@ -7762,7 +7784,7 @@
         <v>0.95537446351931299</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>9</v>
       </c>
@@ -7785,7 +7807,7 @@
         <v>0.96772927597061897</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>10</v>
       </c>
@@ -7808,7 +7830,7 @@
         <v>0.41186979166666698</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>11</v>
       </c>
@@ -7830,8 +7852,11 @@
       <c r="G309">
         <v>4.0982190476190498E-2</v>
       </c>
-    </row>
-    <row r="310" spans="1:7">
+      <c r="H309" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>12</v>
       </c>
@@ -7854,7 +7879,7 @@
         <v>0.58273595505618003</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>13</v>
       </c>
@@ -7877,7 +7902,7 @@
         <v>2.88701111111111E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>14</v>
       </c>
@@ -7900,7 +7925,7 @@
         <v>0.63713708260105395</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -7923,7 +7948,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>16</v>
       </c>
@@ -7946,7 +7971,7 @@
         <v>0.85362757731958805</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>17</v>
       </c>
@@ -7969,7 +7994,7 @@
         <v>0.79877777777777803</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>18</v>
       </c>
@@ -7992,7 +8017,7 @@
         <v>0.39177111716621299</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>19</v>
       </c>
@@ -8015,7 +8040,7 @@
         <v>2.2568641975308602E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>20</v>
       </c>
@@ -8038,7 +8063,7 @@
         <v>0.87451395939086296</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>21</v>
       </c>
@@ -8061,7 +8086,7 @@
         <v>0.20623495934959299</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>22</v>
       </c>
@@ -8084,7 +8109,7 @@
         <v>0.110267368421053</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>23</v>
       </c>
@@ -8107,7 +8132,7 @@
         <v>8.8436111111111094E-3</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>24</v>
       </c>
@@ -8127,7 +8152,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>25</v>
       </c>
@@ -8150,7 +8175,7 @@
         <v>0.87789862327909896</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>26</v>
       </c>
@@ -8173,7 +8198,7 @@
         <v>0.92063636363636403</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>27</v>
       </c>
@@ -8196,7 +8221,7 @@
         <v>0.28551305841924401</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>28</v>
       </c>
@@ -8219,7 +8244,7 @@
         <v>0.67291993464052302</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>29</v>
       </c>
@@ -8242,7 +8267,7 @@
         <v>0.56212689393939397</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>30</v>
       </c>
@@ -8265,7 +8290,7 @@
         <v>0.672279605263158</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>31</v>
       </c>
@@ -8288,7 +8313,7 @@
         <v>0.90716336056009295</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>32</v>
       </c>
@@ -8311,7 +8336,7 @@
         <v>0.693305993690852</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>33</v>
       </c>
@@ -8325,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F331">
         <v>2.1900000000000001E-3</v>
@@ -8333,8 +8358,11 @@
       <c r="G331">
         <v>2.63242528735632E-2</v>
       </c>
-    </row>
-    <row r="332" spans="1:7">
+      <c r="H331" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>34</v>
       </c>
@@ -8357,7 +8385,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>35</v>
       </c>
@@ -8380,7 +8408,7 @@
         <v>0.76641791044776097</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>36</v>
       </c>
@@ -8403,7 +8431,7 @@
         <v>0.814264285714286</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>37</v>
       </c>
@@ -8426,7 +8454,7 @@
         <v>0.34833918128655</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>38</v>
       </c>
@@ -8449,7 +8477,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>39</v>
       </c>
@@ -8472,7 +8500,7 @@
         <v>0.73625114155251103</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>40</v>
       </c>
@@ -8495,7 +8523,7 @@
         <v>0.955220430107527</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>41</v>
       </c>
@@ -8518,7 +8546,7 @@
         <v>0.13857129186602901</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>42</v>
       </c>
@@ -8541,7 +8569,7 @@
         <v>0.31564664536741199</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>43</v>
       </c>
@@ -8564,7 +8592,7 @@
         <v>0.331601880877743</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>44</v>
       </c>
@@ -8587,7 +8615,7 @@
         <v>5.8367833333333299E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>45</v>
       </c>
@@ -8610,7 +8638,7 @@
         <v>0.39177111716621299</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>46</v>
       </c>
@@ -8633,7 +8661,7 @@
         <v>0.91594069767441899</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>47</v>
       </c>
@@ -8656,7 +8684,7 @@
         <v>0.90716336056009295</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>48</v>
       </c>
@@ -8679,7 +8707,7 @@
         <v>0.82622222222222197</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>49</v>
       </c>
@@ -8702,7 +8730,7 @@
         <v>0.92205970149253702</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>50</v>
       </c>
@@ -8725,7 +8753,7 @@
         <v>0.55193857965451099</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>51</v>
       </c>
@@ -8748,7 +8776,7 @@
         <v>0.34634897360703798</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>52</v>
       </c>
@@ -8771,7 +8799,7 @@
         <v>0.249522962962963</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>53</v>
       </c>
@@ -8794,7 +8822,7 @@
         <v>3.7121770833333297E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>54</v>
       </c>
@@ -8817,7 +8845,7 @@
         <v>0.52693158953722297</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>55</v>
       </c>
@@ -8840,7 +8868,7 @@
         <v>0.60255719557195597</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>56</v>
       </c>
@@ -8863,7 +8891,7 @@
         <v>0.495869098712446</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>57</v>
       </c>
@@ -8886,7 +8914,7 @@
         <v>0.36657790368271997</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>58</v>
       </c>
@@ -8909,7 +8937,7 @@
         <v>0.2054</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>59</v>
       </c>
@@ -8932,7 +8960,7 @@
         <v>0.58273595505618003</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>60</v>
       </c>
@@ -8955,7 +8983,7 @@
         <v>0.50381132075471702</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>61</v>
       </c>
@@ -8978,7 +9006,7 @@
         <v>1.7444931506849299E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>62</v>
       </c>
@@ -9001,7 +9029,7 @@
         <v>1.8485999999999999E-5</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>63</v>
       </c>
@@ -9024,7 +9052,7 @@
         <v>0.55375525812619497</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>64</v>
       </c>
@@ -9047,7 +9075,7 @@
         <v>9.9178857142857096E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>65</v>
       </c>
@@ -9070,7 +9098,7 @@
         <v>0.68684713375796203</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>66</v>
       </c>
@@ -9093,7 +9121,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>67</v>
       </c>
@@ -9116,7 +9144,7 @@
         <v>9.3879141104294503E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>68</v>
       </c>
@@ -9139,7 +9167,7 @@
         <v>0.64624149659863905</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>69</v>
       </c>
@@ -9162,7 +9190,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>70</v>
       </c>
@@ -9185,7 +9213,7 @@
         <v>0.699199685534591</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>71</v>
       </c>
@@ -9208,7 +9236,7 @@
         <v>0.27423085106382999</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>72</v>
       </c>
@@ -9231,7 +9259,7 @@
         <v>0.87973690773067303</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>73</v>
       </c>
@@ -9254,7 +9282,7 @@
         <v>0.20245368852459</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>0</v>
       </c>
@@ -9277,7 +9305,7 @@
         <v>0.64187499999999997</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1</v>
       </c>
@@ -9300,7 +9328,7 @@
         <v>0.18598193277310901</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>2</v>
       </c>
@@ -9323,7 +9351,7 @@
         <v>0.96077695560253695</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>3</v>
       </c>
@@ -9346,7 +9374,7 @@
         <v>8.8874999999999996E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>4</v>
       </c>
@@ -9369,7 +9397,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -9392,7 +9420,7 @@
         <v>0.97705471124620002</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>6</v>
       </c>
@@ -9415,7 +9443,7 @@
         <v>0.33924924924924899</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>7</v>
       </c>
@@ -9438,7 +9466,7 @@
         <v>0.96077695560253695</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>8</v>
       </c>
@@ -9461,7 +9489,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -9484,7 +9512,7 @@
         <v>0.85362757731958805</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>10</v>
       </c>
@@ -9507,7 +9535,7 @@
         <v>0.68137499999999995</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>11</v>
       </c>
@@ -9530,7 +9558,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>12</v>
       </c>
@@ -9553,7 +9581,7 @@
         <v>0.32118280254777098</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>13</v>
       </c>
@@ -9576,7 +9604,7 @@
         <v>0.30100559210526301</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>14</v>
       </c>
@@ -9599,7 +9627,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>15</v>
       </c>
@@ -9622,7 +9650,7 @@
         <v>0.50608865979381401</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>16</v>
       </c>
@@ -9645,7 +9673,7 @@
         <v>0.44544578313253003</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>17</v>
       </c>
@@ -9668,7 +9696,7 @@
         <v>0.97389762150982395</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>18</v>
       </c>
@@ -9691,7 +9719,7 @@
         <v>0.99283365949119395</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>19</v>
       </c>
@@ -9714,7 +9742,7 @@
         <v>0.43228316326530603</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>20</v>
       </c>
@@ -9737,7 +9765,7 @@
         <v>0.155450454545455</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>21</v>
       </c>
@@ -9760,7 +9788,7 @@
         <v>1.1528903225806501E-3</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>22</v>
       </c>
@@ -9783,7 +9811,7 @@
         <v>0.24507954545454499</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>23</v>
       </c>
@@ -9806,7 +9834,7 @@
         <v>6.4773779527559097E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>24</v>
       </c>
@@ -9829,7 +9857,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>25</v>
       </c>
@@ -9852,7 +9880,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>26</v>
       </c>
@@ -9875,7 +9903,7 @@
         <v>0.57635781544256104</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>27</v>
       </c>
@@ -9898,7 +9926,7 @@
         <v>0.91964808362369299</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>28</v>
       </c>
@@ -9921,7 +9949,7 @@
         <v>0.10325215053763399</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>29</v>
       </c>
@@ -9944,7 +9972,7 @@
         <v>0.806715942028986</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>30</v>
       </c>
@@ -9967,7 +9995,7 @@
         <v>0.73625114155251103</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>31</v>
       </c>
@@ -9990,7 +10018,7 @@
         <v>0.81868652482269499</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>32</v>
       </c>
@@ -10013,7 +10041,7 @@
         <v>0.463656884875846</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>33</v>
       </c>
@@ -10036,7 +10064,7 @@
         <v>0.191706666666667</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>34</v>
       </c>
@@ -10059,7 +10087,7 @@
         <v>0.38299723756906101</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>35</v>
       </c>
@@ -10082,7 +10110,7 @@
         <v>0.39772413793103401</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>36</v>
       </c>
@@ -10105,7 +10133,7 @@
         <v>0.129020100502513</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>37</v>
       </c>
@@ -10128,7 +10156,7 @@
         <v>0.33291131498470899</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>38</v>
       </c>
@@ -10151,7 +10179,7 @@
         <v>0.95529752953813096</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>39</v>
       </c>
@@ -10171,7 +10199,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>40</v>
       </c>
@@ -10191,7 +10219,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>41</v>
       </c>
@@ -10214,7 +10242,7 @@
         <v>3.8537920792079197E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>42</v>
       </c>
@@ -10237,7 +10265,7 @@
         <v>0.68137499999999995</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>43</v>
       </c>
@@ -10260,7 +10288,7 @@
         <v>6.4773779527559097E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>44</v>
       </c>
@@ -10283,7 +10311,7 @@
         <v>0.80243731778425698</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>45</v>
       </c>
@@ -10306,7 +10334,7 @@
         <v>0.21112828685259</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>46</v>
       </c>
@@ -10329,7 +10357,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>47</v>
       </c>
@@ -10352,7 +10380,7 @@
         <v>6.2030800000000002E-6</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>48</v>
       </c>
@@ -10372,7 +10400,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>49</v>
       </c>
@@ -10395,7 +10423,7 @@
         <v>0.29040506756756801</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>50</v>
       </c>
@@ -10418,7 +10446,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>51</v>
       </c>
@@ -10441,7 +10469,7 @@
         <v>0.16551205357142901</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>52</v>
       </c>
@@ -10464,7 +10492,7 @@
         <v>0.94309477124183005</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>53</v>
       </c>
@@ -10487,7 +10515,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>54</v>
       </c>
@@ -10510,7 +10538,7 @@
         <v>0.992933658536585</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>55</v>
       </c>
@@ -10533,7 +10561,7 @@
         <v>0.680782820097245</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>56</v>
       </c>
@@ -10556,7 +10584,7 @@
         <v>0.44871261682243002</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>57</v>
       </c>
@@ -10579,7 +10607,7 @@
         <v>1.08177333333333E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>58</v>
       </c>
@@ -10599,7 +10627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>59</v>
       </c>
@@ -10622,7 +10650,7 @@
         <v>0.37029859154929601</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>60</v>
       </c>
@@ -10645,7 +10673,7 @@
         <v>0.50266666666666704</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>61</v>
       </c>
@@ -10668,7 +10696,7 @@
         <v>1.8349066666666702E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>62</v>
       </c>
@@ -10691,7 +10719,7 @@
         <v>8.0028490566037697E-3</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>63</v>
       </c>
@@ -10711,7 +10739,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>64</v>
       </c>
@@ -10734,7 +10762,7 @@
         <v>6.2862338709677404E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>65</v>
       </c>
@@ -10757,7 +10785,7 @@
         <v>0.64624149659863905</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>66</v>
       </c>
@@ -10780,7 +10808,7 @@
         <v>0.99050246791707797</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>67</v>
       </c>
@@ -10803,7 +10831,7 @@
         <v>0.50266666666666704</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>68</v>
       </c>
@@ -10826,7 +10854,7 @@
         <v>9.9178857142857096E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>69</v>
       </c>
@@ -10846,7 +10874,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>70</v>
       </c>
@@ -10869,7 +10897,7 @@
         <v>0.249522962962963</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>71</v>
       </c>
@@ -10892,7 +10920,7 @@
         <v>0.74267170953101402</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>72</v>
       </c>
@@ -10915,7 +10943,7 @@
         <v>6.9322500000000004E-6</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>73</v>
       </c>
@@ -10938,7 +10966,7 @@
         <v>2.9568571428571399E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>0</v>
       </c>
@@ -10961,7 +10989,7 @@
         <v>0.33713069908814602</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1</v>
       </c>
@@ -10984,7 +11012,7 @@
         <v>0.80607558139534896</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>2</v>
       </c>
@@ -11007,7 +11035,7 @@
         <v>0.61957952468007305</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>3</v>
       </c>
@@ -11030,7 +11058,7 @@
         <v>0.72111882716049402</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -11053,7 +11081,7 @@
         <v>0.66352086811352295</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>5</v>
       </c>
@@ -11076,7 +11104,7 @@
         <v>0.63645070422535199</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>6</v>
       </c>
@@ -11099,7 +11127,7 @@
         <v>0.79290441176470605</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>7</v>
       </c>
@@ -11122,7 +11150,7 @@
         <v>0.31564664536741199</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>8</v>
       </c>
@@ -11145,7 +11173,7 @@
         <v>0.89128928571428601</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>9</v>
       </c>
@@ -11168,7 +11196,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>10</v>
       </c>
@@ -11191,7 +11219,7 @@
         <v>0.85362757731958805</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>11</v>
       </c>
@@ -11214,7 +11242,7 @@
         <v>0.267240860215054</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>12</v>
       </c>
@@ -11237,7 +11265,7 @@
         <v>0.87566624685138506</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>13</v>
       </c>
@@ -11260,7 +11288,7 @@
         <v>0.91989687137891096</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>14</v>
       </c>
@@ -11283,7 +11311,7 @@
         <v>0.377912921348315</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>15</v>
       </c>
@@ -11306,7 +11334,7 @@
         <v>7.6493793103448296E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>16</v>
       </c>
@@ -11329,7 +11357,7 @@
         <v>3.8537920792079197E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>17</v>
       </c>
@@ -11352,7 +11380,7 @@
         <v>0.51976219512195099</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>18</v>
       </c>
@@ -11375,7 +11403,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>19</v>
       </c>
@@ -11398,7 +11426,7 @@
         <v>0.44704705882352902</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>20</v>
       </c>
@@ -11421,7 +11449,7 @@
         <v>0.21925634920634901</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>21</v>
       </c>
@@ -11444,7 +11472,7 @@
         <v>6.8283740458015302E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>22</v>
       </c>
@@ -11467,7 +11495,7 @@
         <v>0.60255719557195597</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>23</v>
       </c>
@@ -11490,7 +11518,7 @@
         <v>0.22473176470588199</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>24</v>
       </c>
@@ -11513,7 +11541,7 @@
         <v>0.74943243243243196</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>25</v>
       </c>
@@ -11536,7 +11564,7 @@
         <v>0.92063636363636403</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>26</v>
       </c>
@@ -11559,7 +11587,7 @@
         <v>6.7459803921568603E-3</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>27</v>
       </c>
@@ -11582,7 +11610,7 @@
         <v>0.62933392539964506</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>28</v>
       </c>
@@ -11605,7 +11633,7 @@
         <v>0.66602475247524795</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>29</v>
       </c>
@@ -11628,7 +11656,7 @@
         <v>0.37029859154929601</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>30</v>
       </c>
@@ -11651,7 +11679,7 @@
         <v>0.33713069908814602</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>31</v>
       </c>
@@ -11674,7 +11702,7 @@
         <v>0.720646058732612</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>32</v>
       </c>
@@ -11697,7 +11725,7 @@
         <v>0.44301960784313699</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>33</v>
       </c>
@@ -11720,7 +11748,7 @@
         <v>8.61354838709677E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>34</v>
       </c>
@@ -11743,7 +11771,7 @@
         <v>0.68137499999999995</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>35</v>
       </c>
@@ -11766,7 +11794,7 @@
         <v>0.98616500994035805</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>36</v>
       </c>
@@ -11789,7 +11817,7 @@
         <v>0.10325215053763399</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>37</v>
       </c>
@@ -11812,7 +11840,7 @@
         <v>0.65275423728813597</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>38</v>
       </c>
@@ -11835,7 +11863,7 @@
         <v>0.66602475247524795</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>39</v>
       </c>
@@ -11858,7 +11886,7 @@
         <v>0.28543517241379301</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>40</v>
       </c>
@@ -11881,7 +11909,7 @@
         <v>3.1811951219512199E-3</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>41</v>
       </c>
@@ -11904,7 +11932,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>42</v>
       </c>
@@ -11927,7 +11955,7 @@
         <v>0.88083044554455403</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>43</v>
       </c>
@@ -11950,7 +11978,7 @@
         <v>0.52693158953722297</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>44</v>
       </c>
@@ -11973,7 +12001,7 @@
         <v>0.28664554794520503</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>45</v>
       </c>
@@ -11996,7 +12024,7 @@
         <v>0.88083044554455403</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>46</v>
       </c>
@@ -12019,7 +12047,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>47</v>
       </c>
@@ -12042,7 +12070,7 @@
         <v>1.1810499999999999E-3</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>48</v>
       </c>
@@ -12065,7 +12093,7 @@
         <v>3.3239462365591402E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>49</v>
       </c>
@@ -12088,7 +12116,7 @@
         <v>0.984808617234469</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>50</v>
       </c>
@@ -12111,7 +12139,7 @@
         <v>0.43228316326530603</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>51</v>
       </c>
@@ -12134,7 +12162,7 @@
         <v>0.74267170953101402</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>52</v>
       </c>
@@ -12157,7 +12185,7 @@
         <v>0.25300182481751798</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>53</v>
       </c>
@@ -12180,7 +12208,7 @@
         <v>0.44161</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>54</v>
       </c>
@@ -12203,7 +12231,7 @@
         <v>5.3281111111111099E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>55</v>
       </c>
@@ -12217,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="E501">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F501">
         <v>5.1799999999999997E-3</v>
@@ -12225,8 +12253,11 @@
       <c r="G501">
         <v>4.7078407079646001E-2</v>
       </c>
-    </row>
-    <row r="502" spans="1:7">
+      <c r="H501" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>56</v>
       </c>
@@ -12249,7 +12280,7 @@
         <v>0.89128928571428601</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>57</v>
       </c>
@@ -12272,7 +12303,7 @@
         <v>0.99283365949119395</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>58</v>
       </c>
@@ -12286,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="E504">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F504" s="1">
         <v>4.5399999999999999E-5</v>
@@ -12294,8 +12325,11 @@
       <c r="G504">
         <v>1.37134705882353E-3</v>
       </c>
-    </row>
-    <row r="505" spans="1:7">
+      <c r="H504" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>59</v>
       </c>
@@ -12318,7 +12352,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>60</v>
       </c>
@@ -12341,7 +12375,7 @@
         <v>0.49813888888888902</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>61</v>
       </c>
@@ -12364,7 +12398,7 @@
         <v>0.45852391799544401</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>62</v>
       </c>
@@ -12387,7 +12421,7 @@
         <v>0.75333832335329298</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>63</v>
       </c>
@@ -12410,7 +12444,7 @@
         <v>0.94653862894450502</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>64</v>
       </c>
@@ -12433,7 +12467,7 @@
         <v>3.4196914893617002E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>65</v>
       </c>
@@ -12456,7 +12490,7 @@
         <v>0.65291568296795999</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>66</v>
       </c>
@@ -12479,7 +12513,7 @@
         <v>0.53775984251968501</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>67</v>
       </c>
@@ -12502,7 +12536,7 @@
         <v>0.899384615384615</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>68</v>
       </c>
@@ -12525,7 +12559,7 @@
         <v>0.992933658536585</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>69</v>
       </c>
@@ -12548,7 +12582,7 @@
         <v>0.83124585635359105</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>70</v>
       </c>
@@ -12571,7 +12605,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>71</v>
       </c>
@@ -12594,7 +12628,7 @@
         <v>0.96779140461215896</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>72</v>
       </c>
@@ -12617,7 +12651,7 @@
         <v>6.7113255813953498E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>73</v>
       </c>
@@ -12640,7 +12674,7 @@
         <v>0.160063963963964</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>0</v>
       </c>
@@ -12663,7 +12697,7 @@
         <v>0.469551801801802</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>1</v>
       </c>
@@ -12686,7 +12720,7 @@
         <v>0.31543571428571399</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>2</v>
       </c>
@@ -12709,7 +12743,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>3</v>
       </c>
@@ -12732,7 +12766,7 @@
         <v>0.99283365949119395</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>4</v>
       </c>
@@ -12755,7 +12789,7 @@
         <v>0.68466666666666698</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>5</v>
       </c>
@@ -12778,7 +12812,7 @@
         <v>0.61808440366972495</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>6</v>
       </c>
@@ -12801,7 +12835,7 @@
         <v>2.6164047619047601E-2</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>7</v>
       </c>
@@ -12815,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="E527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F527">
         <v>9.2899999999999996E-3</v>
@@ -12823,8 +12857,11 @@
       <c r="G527">
         <v>6.9641094890510902E-2</v>
       </c>
-    </row>
-    <row r="528" spans="1:7">
+      <c r="H527" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>8</v>
       </c>
@@ -12847,7 +12884,7 @@
         <v>0.15428447488584501</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>9</v>
       </c>
@@ -12870,7 +12907,7 @@
         <v>0.28224545454545502</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>10</v>
       </c>
@@ -12893,7 +12930,7 @@
         <v>0.99283365949119395</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>11</v>
       </c>
@@ -12916,7 +12953,7 @@
         <v>0.49579310344827598</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>12</v>
       </c>
@@ -12939,7 +12976,7 @@
         <v>0.86849617346938801</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>13</v>
       </c>
@@ -12962,7 +12999,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>14</v>
       </c>
@@ -12985,7 +13022,7 @@
         <v>0.31543571428571399</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>15</v>
       </c>
@@ -13008,7 +13045,7 @@
         <v>0.97171635610766005</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>16</v>
       </c>
@@ -13031,7 +13068,7 @@
         <v>6.7113255813953498E-2</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>17</v>
       </c>
@@ -13054,7 +13091,7 @@
         <v>4.7836578947368397E-2</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>18</v>
       </c>
@@ -13077,7 +13114,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>19</v>
       </c>
@@ -13100,7 +13137,7 @@
         <v>3.2521666666666701E-3</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>20</v>
       </c>
@@ -13123,7 +13160,7 @@
         <v>0.85362757731958805</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>21</v>
       </c>
@@ -13146,7 +13183,7 @@
         <v>0.33291131498470899</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>22</v>
       </c>
@@ -13169,7 +13206,7 @@
         <v>0.49579310344827598</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>23</v>
       </c>
@@ -13192,7 +13229,7 @@
         <v>0.477888143176734</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>24</v>
       </c>
@@ -13215,7 +13252,7 @@
         <v>5.3281111111111099E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>25</v>
       </c>
@@ -13238,7 +13275,7 @@
         <v>0.73132465543644698</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>26</v>
       </c>
@@ -13261,7 +13298,7 @@
         <v>0.28895254237288098</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>27</v>
       </c>
@@ -13284,7 +13321,7 @@
         <v>0.64624149659863905</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>28</v>
       </c>
@@ -13307,7 +13344,7 @@
         <v>0.95882655246252702</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>29</v>
       </c>
@@ -13330,7 +13367,7 @@
         <v>0.38227222222222201</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>30</v>
       </c>
@@ -13353,7 +13390,7 @@
         <v>0.15428447488584501</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>31</v>
       </c>
@@ -13376,7 +13413,7 @@
         <v>0.681343042071197</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>32</v>
       </c>
@@ -13399,7 +13436,7 @@
         <v>0.36657790368271997</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>33</v>
       </c>
@@ -13422,7 +13459,7 @@
         <v>0.387600550964187</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>34</v>
       </c>
@@ -13445,7 +13482,7 @@
         <v>0.77366322008862598</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>35</v>
       </c>
@@ -13468,7 +13505,7 @@
         <v>0.44301960784313699</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>36</v>
       </c>
@@ -13491,7 +13528,7 @@
         <v>0.94680043383947898</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>37</v>
       </c>
@@ -13514,7 +13551,7 @@
         <v>0.67291993464052302</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>38</v>
       </c>
@@ -13537,7 +13574,7 @@
         <v>0.85362757731958805</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>39</v>
       </c>
@@ -13560,7 +13597,7 @@
         <v>0.62175135135135096</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>40</v>
       </c>
@@ -13583,7 +13620,7 @@
         <v>0.29676521739130401</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>41</v>
       </c>
@@ -13606,7 +13643,7 @@
         <v>0.44161</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>42</v>
       </c>
@@ -13629,7 +13666,7 @@
         <v>7.9644897959183697E-2</v>
       </c>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>43</v>
       </c>
@@ -13652,7 +13689,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>44</v>
       </c>
@@ -13675,7 +13712,7 @@
         <v>1.2853546875E-2</v>
       </c>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>45</v>
       </c>
@@ -13698,7 +13735,7 @@
         <v>0.45006060606060599</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>46</v>
       </c>
@@ -13721,7 +13758,7 @@
         <v>5.8367833333333299E-2</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>47</v>
       </c>
@@ -13744,7 +13781,7 @@
         <v>6.2030800000000002E-6</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>48</v>
       </c>
@@ -13767,7 +13804,7 @@
         <v>1.9684166666666701E-5</v>
       </c>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>49</v>
       </c>
@@ -13790,7 +13827,7 @@
         <v>0.85362757731958805</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>50</v>
       </c>
@@ -13813,7 +13850,7 @@
         <v>0.82650421348314596</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>51</v>
       </c>
@@ -13836,7 +13873,7 @@
         <v>0.50602702702702695</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>52</v>
       </c>
@@ -13859,7 +13896,7 @@
         <v>4.3040636363636399E-2</v>
       </c>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>53</v>
       </c>
@@ -13882,7 +13919,7 @@
         <v>0.14182380952380999</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>54</v>
       </c>
@@ -13905,7 +13942,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>55</v>
       </c>
@@ -13928,7 +13965,7 @@
         <v>0.88460613496932505</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>56</v>
       </c>
@@ -13951,7 +13988,7 @@
         <v>6.4773779527559097E-2</v>
       </c>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>57</v>
       </c>
@@ -13974,7 +14011,7 @@
         <v>0.74352941176470599</v>
       </c>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>58</v>
       </c>
@@ -13997,7 +14034,7 @@
         <v>0.33291131498470899</v>
       </c>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>59</v>
       </c>
@@ -14020,7 +14057,7 @@
         <v>0.38227222222222201</v>
       </c>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>60</v>
       </c>
@@ -14043,7 +14080,7 @@
         <v>0.69062500000000004</v>
       </c>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>61</v>
       </c>
@@ -14066,7 +14103,7 @@
         <v>0.49932696390658199</v>
       </c>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>62</v>
       </c>
@@ -14089,7 +14126,7 @@
         <v>0.43530203045685301</v>
       </c>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>63</v>
       </c>
@@ -14112,7 +14149,7 @@
         <v>0.24886479400749101</v>
       </c>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>64</v>
       </c>
@@ -14135,7 +14172,7 @@
         <v>1.58158E-9</v>
       </c>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>65</v>
       </c>
@@ -14158,7 +14195,7 @@
         <v>8.6194642857142904E-4</v>
       </c>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>66</v>
       </c>
@@ -14181,7 +14218,7 @@
         <v>0.44161</v>
       </c>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>67</v>
       </c>
@@ -14204,7 +14241,7 @@
         <v>0.42879896907216503</v>
       </c>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>68</v>
       </c>
@@ -14227,7 +14264,7 @@
         <v>0.13479374999999999</v>
       </c>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>69</v>
       </c>
@@ -14250,7 +14287,7 @@
         <v>0.54720463320463297</v>
       </c>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>70</v>
       </c>
@@ -14273,7 +14310,7 @@
         <v>0.28543517241379301</v>
       </c>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>71</v>
       </c>
@@ -14296,7 +14333,7 @@
         <v>0.53281980198019796</v>
       </c>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>72</v>
       </c>
@@ -14319,7 +14356,7 @@
         <v>1.74883428571429E-3</v>
       </c>
     </row>
-    <row r="593" spans="1:7">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>73</v>
       </c>
@@ -14342,7 +14379,7 @@
         <v>0.45877324263038499</v>
       </c>
     </row>
-    <row r="594" spans="1:7">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>0</v>
       </c>
@@ -14365,7 +14402,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="595" spans="1:7">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>1</v>
       </c>
@@ -14388,7 +14425,7 @@
         <v>0.87000636942675202</v>
       </c>
     </row>
-    <row r="596" spans="1:7">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>2</v>
       </c>
@@ -14411,7 +14448,7 @@
         <v>0.52693158953722297</v>
       </c>
     </row>
-    <row r="597" spans="1:7">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>3</v>
       </c>
@@ -14434,7 +14471,7 @@
         <v>0.99283365949119395</v>
       </c>
     </row>
-    <row r="598" spans="1:7">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>4</v>
       </c>
@@ -14457,7 +14494,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="599" spans="1:7">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>5</v>
       </c>
@@ -14480,7 +14517,7 @@
         <v>0.79660263929618802</v>
       </c>
     </row>
-    <row r="600" spans="1:7">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>6</v>
       </c>
@@ -14503,7 +14540,7 @@
         <v>9.0654938271604896E-2</v>
       </c>
     </row>
-    <row r="601" spans="1:7">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>7</v>
       </c>
@@ -14526,7 +14563,7 @@
         <v>0.28895254237288098</v>
       </c>
     </row>
-    <row r="602" spans="1:7">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>8</v>
       </c>
@@ -14549,7 +14586,7 @@
         <v>0.49932696390658199</v>
       </c>
     </row>
-    <row r="603" spans="1:7">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>9</v>
       </c>
@@ -14572,7 +14609,7 @@
         <v>0.148291121495327</v>
       </c>
     </row>
-    <row r="604" spans="1:7">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>10</v>
       </c>
@@ -14595,7 +14632,7 @@
         <v>0.39202688172042999</v>
       </c>
     </row>
-    <row r="605" spans="1:7">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>11</v>
       </c>
@@ -14618,7 +14655,7 @@
         <v>0.92063636363636403</v>
       </c>
     </row>
-    <row r="606" spans="1:7">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>12</v>
       </c>
@@ -14641,7 +14678,7 @@
         <v>0.628325581395349</v>
       </c>
     </row>
-    <row r="607" spans="1:7">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>13</v>
       </c>
@@ -14664,7 +14701,7 @@
         <v>0.88083044554455403</v>
       </c>
     </row>
-    <row r="608" spans="1:7">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>14</v>
       </c>
@@ -14687,7 +14724,7 @@
         <v>0.60255719557195597</v>
       </c>
     </row>
-    <row r="609" spans="1:7">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>15</v>
       </c>
@@ -14710,7 +14747,7 @@
         <v>0.88316953316953295</v>
       </c>
     </row>
-    <row r="610" spans="1:7">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>16</v>
       </c>
@@ -14733,7 +14770,7 @@
         <v>0.76872172619047596</v>
       </c>
     </row>
-    <row r="611" spans="1:7">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>17</v>
       </c>
@@ -14756,7 +14793,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>18</v>
       </c>
@@ -14779,7 +14816,7 @@
         <v>0.96035425531914898</v>
       </c>
     </row>
-    <row r="613" spans="1:7">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>19</v>
       </c>
@@ -14802,7 +14839,7 @@
         <v>0.902110979929162</v>
       </c>
     </row>
-    <row r="614" spans="1:7">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>20</v>
       </c>
@@ -14825,7 +14862,7 @@
         <v>0.58932523364486</v>
       </c>
     </row>
-    <row r="615" spans="1:7">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>21</v>
       </c>
@@ -14848,7 +14885,7 @@
         <v>0.10379839572192499</v>
       </c>
     </row>
-    <row r="616" spans="1:7">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>22</v>
       </c>
@@ -14871,7 +14908,7 @@
         <v>0.821019774011299</v>
       </c>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>23</v>
       </c>
@@ -14894,7 +14931,7 @@
         <v>0.477888143176734</v>
       </c>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>24</v>
       </c>
@@ -14917,7 +14954,7 @@
         <v>0.63806631762652699</v>
       </c>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>25</v>
       </c>
@@ -14940,7 +14977,7 @@
         <v>0.62617446043165503</v>
       </c>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>26</v>
       </c>
@@ -14963,7 +15000,7 @@
         <v>6.0593000000000001E-3</v>
       </c>
     </row>
-    <row r="621" spans="1:7">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>27</v>
       </c>
@@ -14986,7 +15023,7 @@
         <v>0.44840845070422503</v>
       </c>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>28</v>
       </c>
@@ -15009,7 +15046,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>29</v>
       </c>
@@ -15032,7 +15069,7 @@
         <v>0.39177111716621299</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>30</v>
       </c>
@@ -15055,7 +15092,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>31</v>
       </c>
@@ -15078,7 +15115,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>32</v>
       </c>
@@ -15101,7 +15138,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>33</v>
       </c>
@@ -15124,7 +15161,7 @@
         <v>0.64276034482758604</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>34</v>
       </c>
@@ -15147,7 +15184,7 @@
         <v>3.9569705882352903E-2</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>35</v>
       </c>
@@ -15170,7 +15207,7 @@
         <v>0.67291993464052302</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>36</v>
       </c>
@@ -15193,7 +15230,7 @@
         <v>4.4794680851063797E-3</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>37</v>
       </c>
@@ -15216,7 +15253,7 @@
         <v>0.827902370990237</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>38</v>
       </c>
@@ -15239,7 +15276,7 @@
         <v>0.827624301675978</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>39</v>
       </c>
@@ -15262,7 +15299,7 @@
         <v>0.19733677685950399</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>40</v>
       </c>
@@ -15285,7 +15322,7 @@
         <v>0.53775984251968501</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>41</v>
       </c>
@@ -15308,7 +15345,7 @@
         <v>0.87528409090909098</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>42</v>
       </c>
@@ -15331,7 +15368,7 @@
         <v>2.63242528735632E-2</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>43</v>
       </c>
@@ -15354,7 +15391,7 @@
         <v>7.0560071942445998E-2</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>44</v>
       </c>
@@ -15377,7 +15414,7 @@
         <v>0.233731034482759</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>45</v>
       </c>
@@ -15400,7 +15437,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>46</v>
       </c>
@@ -15423,7 +15460,7 @@
         <v>0.44161</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>47</v>
       </c>
@@ -15446,7 +15483,7 @@
         <v>3.33775E-3</v>
       </c>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>48</v>
       </c>
@@ -15469,7 +15506,7 @@
         <v>0.69383149606299199</v>
       </c>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>49</v>
       </c>
@@ -15492,7 +15529,7 @@
         <v>0.93064790286975696</v>
       </c>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>50</v>
       </c>
@@ -15515,7 +15552,7 @@
         <v>0.99283365949119395</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>51</v>
       </c>
@@ -15538,7 +15575,7 @@
         <v>0.481690265486726</v>
       </c>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>52</v>
       </c>
@@ -15561,7 +15598,7 @@
         <v>0.24224656488549601</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>53</v>
       </c>
@@ -15584,7 +15621,7 @@
         <v>0.67855357142857098</v>
       </c>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>54</v>
       </c>
@@ -15607,7 +15644,7 @@
         <v>0.94662608695652195</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>55</v>
       </c>
@@ -15630,7 +15667,7 @@
         <v>0.24979047619047601</v>
       </c>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>56</v>
       </c>
@@ -15653,7 +15690,7 @@
         <v>0.44301960784313699</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>57</v>
       </c>
@@ -15676,7 +15713,7 @@
         <v>0.61733272058823496</v>
       </c>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>58</v>
       </c>
@@ -15699,7 +15736,7 @@
         <v>0.49331877729257601</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>59</v>
       </c>
@@ -15722,7 +15759,7 @@
         <v>0.83258847736625496</v>
       </c>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>60</v>
       </c>
@@ -15745,7 +15782,7 @@
         <v>0.56969433962264104</v>
       </c>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>61</v>
       </c>
@@ -15768,7 +15805,7 @@
         <v>0.55284865900383195</v>
       </c>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>62</v>
       </c>
@@ -15791,7 +15828,7 @@
         <v>0.893892984542212</v>
       </c>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>63</v>
       </c>
@@ -15814,7 +15851,7 @@
         <v>9.9075294117647095E-2</v>
       </c>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>64</v>
       </c>
@@ -15837,7 +15874,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>65</v>
       </c>
@@ -15860,7 +15897,7 @@
         <v>9.5894578313253001E-2</v>
       </c>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>66</v>
       </c>
@@ -15883,7 +15920,7 @@
         <v>0.98596103896103904</v>
       </c>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>67</v>
       </c>
@@ -15906,7 +15943,7 @@
         <v>0.354240579710145</v>
       </c>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>68</v>
       </c>
@@ -15929,7 +15966,7 @@
         <v>0.22562277992277999</v>
       </c>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>69</v>
       </c>
@@ -15952,7 +15989,7 @@
         <v>0.13335671641791</v>
       </c>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>70</v>
       </c>
@@ -15975,7 +16012,7 @@
         <v>0.94281967213114704</v>
       </c>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>71</v>
       </c>
@@ -15998,7 +16035,7 @@
         <v>0.79660263929618802</v>
       </c>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>72</v>
       </c>
@@ -16021,7 +16058,7 @@
         <v>6.6945185185185202E-4</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>73</v>
       </c>
@@ -16044,7 +16081,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>0</v>
       </c>
@@ -16067,7 +16104,7 @@
         <v>0.54335465116279102</v>
       </c>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>1</v>
       </c>
@@ -16090,7 +16127,7 @@
         <v>2.19183421052632E-3</v>
       </c>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>2</v>
       </c>
@@ -16113,7 +16150,7 @@
         <v>0.87490000000000001</v>
       </c>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>3</v>
       </c>
@@ -16136,7 +16173,7 @@
         <v>0.332735202492212</v>
       </c>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>4</v>
       </c>
@@ -16159,7 +16196,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>5</v>
       </c>
@@ -16182,7 +16219,7 @@
         <v>0.35515850144092198</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>6</v>
       </c>
@@ -16205,7 +16242,7 @@
         <v>0.58273595505618003</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>7</v>
       </c>
@@ -16228,7 +16265,7 @@
         <v>0.45852391799544401</v>
       </c>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>8</v>
       </c>
@@ -16251,7 +16288,7 @@
         <v>0.90716336056009295</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>9</v>
       </c>
@@ -16274,7 +16311,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>10</v>
       </c>
@@ -16297,7 +16334,7 @@
         <v>0.53281980198019796</v>
       </c>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>11</v>
       </c>
@@ -16320,7 +16357,7 @@
         <v>0.89664531435349903</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>12</v>
       </c>
@@ -16343,7 +16380,7 @@
         <v>0.87566624685138506</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>13</v>
       </c>
@@ -16366,7 +16403,7 @@
         <v>0.87451395939086296</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>14</v>
       </c>
@@ -16389,7 +16426,7 @@
         <v>0.507160493827161</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>15</v>
       </c>
@@ -16412,7 +16449,7 @@
         <v>0.62933392539964506</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>16</v>
       </c>
@@ -16435,7 +16472,7 @@
         <v>0.83124585635359105</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>17</v>
       </c>
@@ -16458,7 +16495,7 @@
         <v>0.106523936170213</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>18</v>
       </c>
@@ -16481,7 +16518,7 @@
         <v>0.35515850144092198</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>19</v>
       </c>
@@ -16504,7 +16541,7 @@
         <v>0.62175135135135096</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>20</v>
       </c>
@@ -16527,7 +16564,7 @@
         <v>0.44088383838383799</v>
       </c>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>21</v>
       </c>
@@ -16550,7 +16587,7 @@
         <v>0.379731092436975</v>
       </c>
     </row>
-    <row r="690" spans="1:7">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>22</v>
       </c>
@@ -16573,7 +16610,7 @@
         <v>0.84151261620185902</v>
       </c>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>23</v>
       </c>
@@ -16596,7 +16633,7 @@
         <v>0.720646058732612</v>
       </c>
     </row>
-    <row r="692" spans="1:7">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>24</v>
       </c>
@@ -16619,7 +16656,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>25</v>
       </c>
@@ -16642,7 +16679,7 @@
         <v>0.97848844221105502</v>
       </c>
     </row>
-    <row r="694" spans="1:7">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>26</v>
       </c>
@@ -16665,7 +16702,7 @@
         <v>8.0692857142857104E-5</v>
       </c>
     </row>
-    <row r="695" spans="1:7">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>27</v>
       </c>
@@ -16688,7 +16725,7 @@
         <v>0.96077695560253695</v>
       </c>
     </row>
-    <row r="696" spans="1:7">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>28</v>
       </c>
@@ -16711,7 +16748,7 @@
         <v>0.87451395939086296</v>
       </c>
     </row>
-    <row r="697" spans="1:7">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>29</v>
       </c>
@@ -16734,7 +16771,7 @@
         <v>0.44704705882352902</v>
       </c>
     </row>
-    <row r="698" spans="1:7">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>30</v>
       </c>
@@ -16757,7 +16794,7 @@
         <v>0.81547301136363604</v>
       </c>
     </row>
-    <row r="699" spans="1:7">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>31</v>
       </c>
@@ -16780,7 +16817,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="700" spans="1:7">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>32</v>
       </c>
@@ -16803,7 +16840,7 @@
         <v>0.96035425531914898</v>
       </c>
     </row>
-    <row r="701" spans="1:7">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>33</v>
       </c>
@@ -16826,7 +16863,7 @@
         <v>0.77366322008862598</v>
       </c>
     </row>
-    <row r="702" spans="1:7">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>34</v>
       </c>
@@ -16849,7 +16886,7 @@
         <v>0.49087885462555098</v>
       </c>
     </row>
-    <row r="703" spans="1:7">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>35</v>
       </c>
@@ -16872,7 +16909,7 @@
         <v>0.87789862327909896</v>
       </c>
     </row>
-    <row r="704" spans="1:7">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>36</v>
       </c>
@@ -16895,7 +16932,7 @@
         <v>0.32272499999999998</v>
       </c>
     </row>
-    <row r="705" spans="1:7">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>37</v>
       </c>
@@ -16918,7 +16955,7 @@
         <v>0.98604287138584201</v>
       </c>
     </row>
-    <row r="706" spans="1:7">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>38</v>
       </c>
@@ -16941,7 +16978,7 @@
         <v>0.88083044554455403</v>
       </c>
     </row>
-    <row r="707" spans="1:7">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>39</v>
       </c>
@@ -16964,7 +17001,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="708" spans="1:7">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>40</v>
       </c>
@@ -16987,7 +17024,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="709" spans="1:7">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>41</v>
       </c>
@@ -17010,7 +17047,7 @@
         <v>0.49932696390658199</v>
       </c>
     </row>
-    <row r="710" spans="1:7">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>42</v>
       </c>
@@ -17033,7 +17070,7 @@
         <v>0.48289403973509898</v>
       </c>
     </row>
-    <row r="711" spans="1:7">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>43</v>
       </c>
@@ -17056,7 +17093,7 @@
         <v>7.8080136986301396E-2</v>
       </c>
     </row>
-    <row r="712" spans="1:7">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>44</v>
       </c>
@@ -17079,7 +17116,7 @@
         <v>0.59860521415269996</v>
       </c>
     </row>
-    <row r="713" spans="1:7">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>45</v>
       </c>
@@ -17102,7 +17139,7 @@
         <v>0.83619125683060103</v>
       </c>
     </row>
-    <row r="714" spans="1:7">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>46</v>
       </c>
@@ -17125,7 +17162,7 @@
         <v>0.53947470817120602</v>
       </c>
     </row>
-    <row r="715" spans="1:7">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>47</v>
       </c>
@@ -17148,7 +17185,7 @@
         <v>0.19304190871369301</v>
       </c>
     </row>
-    <row r="716" spans="1:7">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>48</v>
       </c>
@@ -17171,7 +17208,7 @@
         <v>0.495869098712446</v>
       </c>
     </row>
-    <row r="717" spans="1:7">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>49</v>
       </c>
@@ -17194,7 +17231,7 @@
         <v>0.17101585903083699</v>
       </c>
     </row>
-    <row r="718" spans="1:7">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>50</v>
       </c>
@@ -17217,7 +17254,7 @@
         <v>0.97715571284125402</v>
       </c>
     </row>
-    <row r="719" spans="1:7">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>51</v>
       </c>
@@ -17240,7 +17277,7 @@
         <v>0.10325215053763399</v>
       </c>
     </row>
-    <row r="720" spans="1:7">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>52</v>
       </c>
@@ -17263,7 +17300,7 @@
         <v>0.614686924493554</v>
       </c>
     </row>
-    <row r="721" spans="1:7">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>53</v>
       </c>
@@ -17286,7 +17323,7 @@
         <v>8.9862499999999998E-2</v>
       </c>
     </row>
-    <row r="722" spans="1:7">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>54</v>
       </c>
@@ -17309,7 +17346,7 @@
         <v>0.56969433962264104</v>
       </c>
     </row>
-    <row r="723" spans="1:7">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>55</v>
       </c>
@@ -17332,7 +17369,7 @@
         <v>0.83124585635359105</v>
       </c>
     </row>
-    <row r="724" spans="1:7">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>56</v>
       </c>
@@ -17355,7 +17392,7 @@
         <v>0.34436498516320502</v>
       </c>
     </row>
-    <row r="725" spans="1:7">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>57</v>
       </c>
@@ -17378,7 +17415,7 @@
         <v>0.28543517241379301</v>
       </c>
     </row>
-    <row r="726" spans="1:7">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>58</v>
       </c>
@@ -17401,7 +17438,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="727" spans="1:7">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>59</v>
       </c>
@@ -17424,7 +17461,7 @@
         <v>0.45852391799544401</v>
       </c>
     </row>
-    <row r="728" spans="1:7">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>60</v>
       </c>
@@ -17447,7 +17484,7 @@
         <v>0.62933392539964506</v>
       </c>
     </row>
-    <row r="729" spans="1:7">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>61</v>
       </c>
@@ -17470,7 +17507,7 @@
         <v>0.72159013867488397</v>
       </c>
     </row>
-    <row r="730" spans="1:7">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>62</v>
       </c>
@@ -17493,7 +17530,7 @@
         <v>0.20245368852459</v>
       </c>
     </row>
-    <row r="731" spans="1:7">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>63</v>
       </c>
@@ -17516,7 +17553,7 @@
         <v>0.93548514851485198</v>
       </c>
     </row>
-    <row r="732" spans="1:7">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>64</v>
       </c>
@@ -17539,7 +17576,7 @@
         <v>2.901275E-3</v>
       </c>
     </row>
-    <row r="733" spans="1:7">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>65</v>
       </c>
@@ -17562,7 +17599,7 @@
         <v>0.88155049261083696</v>
       </c>
     </row>
-    <row r="734" spans="1:7">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>66</v>
       </c>
@@ -17585,7 +17622,7 @@
         <v>0.93548514851485198</v>
       </c>
     </row>
-    <row r="735" spans="1:7">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>67</v>
       </c>
@@ -17608,7 +17645,7 @@
         <v>0.337177710843374</v>
       </c>
     </row>
-    <row r="736" spans="1:7">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>68</v>
       </c>
@@ -17631,7 +17668,7 @@
         <v>0.76872172619047596</v>
       </c>
     </row>
-    <row r="737" spans="1:7">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>69</v>
       </c>
@@ -17654,7 +17691,7 @@
         <v>0.41026370757180203</v>
       </c>
     </row>
-    <row r="738" spans="1:7">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>70</v>
       </c>
@@ -17677,7 +17714,7 @@
         <v>0.53775984251968501</v>
       </c>
     </row>
-    <row r="739" spans="1:7">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>71</v>
       </c>
@@ -17700,7 +17737,7 @@
         <v>0.66291304347826097</v>
       </c>
     </row>
-    <row r="740" spans="1:7">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>72</v>
       </c>
@@ -17723,7 +17760,7 @@
         <v>0.18267489361702099</v>
       </c>
     </row>
-    <row r="741" spans="1:7">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>73</v>
       </c>
@@ -17746,7 +17783,7 @@
         <v>0.97848844221105502</v>
       </c>
     </row>
-    <row r="742" spans="1:7">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>0</v>
       </c>
@@ -17769,7 +17806,7 @@
         <v>0.481690265486726</v>
       </c>
     </row>
-    <row r="743" spans="1:7">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>1</v>
       </c>
@@ -17792,7 +17829,7 @@
         <v>0.97848844221105502</v>
       </c>
     </row>
-    <row r="744" spans="1:7">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>2</v>
       </c>
@@ -17815,7 +17852,7 @@
         <v>0.65291568296795999</v>
       </c>
     </row>
-    <row r="745" spans="1:7">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>3</v>
       </c>
@@ -17838,7 +17875,7 @@
         <v>0.80425909752547298</v>
       </c>
     </row>
-    <row r="746" spans="1:7">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>4</v>
       </c>
@@ -17861,7 +17898,7 @@
         <v>0.96035425531914898</v>
       </c>
     </row>
-    <row r="747" spans="1:7">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>5</v>
       </c>
@@ -17884,7 +17921,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="748" spans="1:7">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>6</v>
       </c>
@@ -17907,7 +17944,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="749" spans="1:7">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>7</v>
       </c>
@@ -17930,7 +17967,7 @@
         <v>0.992933658536585</v>
       </c>
     </row>
-    <row r="750" spans="1:7">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>8</v>
       </c>
@@ -17953,7 +17990,7 @@
         <v>0.814264285714286</v>
       </c>
     </row>
-    <row r="751" spans="1:7">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>9</v>
       </c>
@@ -17976,7 +18013,7 @@
         <v>0.62175135135135096</v>
       </c>
     </row>
-    <row r="752" spans="1:7">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>10</v>
       </c>
@@ -17999,7 +18036,7 @@
         <v>0.10325215053763399</v>
       </c>
     </row>
-    <row r="753" spans="1:7">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>11</v>
       </c>
@@ -18022,7 +18059,7 @@
         <v>9.3846551724137903E-3</v>
       </c>
     </row>
-    <row r="754" spans="1:7">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>12</v>
       </c>
@@ -18045,7 +18082,7 @@
         <v>0.94281967213114704</v>
       </c>
     </row>
-    <row r="755" spans="1:7">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>13</v>
       </c>
@@ -18068,7 +18105,7 @@
         <v>0.71198904538341201</v>
       </c>
     </row>
-    <row r="756" spans="1:7">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>14</v>
       </c>
@@ -18091,7 +18128,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="757" spans="1:7">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>15</v>
       </c>
@@ -18114,7 +18151,7 @@
         <v>0.96785340314136104</v>
       </c>
     </row>
-    <row r="758" spans="1:7">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>16</v>
       </c>
@@ -18137,7 +18174,7 @@
         <v>0.99283365949119395</v>
       </c>
     </row>
-    <row r="759" spans="1:7">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>17</v>
       </c>
@@ -18160,7 +18197,7 @@
         <v>0.94309477124183005</v>
       </c>
     </row>
-    <row r="760" spans="1:7">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>18</v>
       </c>
@@ -18183,7 +18220,7 @@
         <v>0.87789862327909896</v>
       </c>
     </row>
-    <row r="761" spans="1:7">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>19</v>
       </c>
@@ -18206,7 +18243,7 @@
         <v>0.69009191759112498</v>
       </c>
     </row>
-    <row r="762" spans="1:7">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>20</v>
       </c>
@@ -18229,7 +18266,7 @@
         <v>0.98600199600798399</v>
       </c>
     </row>
-    <row r="763" spans="1:7">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>21</v>
       </c>
@@ -18252,7 +18289,7 @@
         <v>0.720646058732612</v>
       </c>
     </row>
-    <row r="764" spans="1:7">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>22</v>
       </c>
@@ -18275,7 +18312,7 @@
         <v>0.39938888888888902</v>
       </c>
     </row>
-    <row r="765" spans="1:7">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>23</v>
       </c>
@@ -18298,7 +18335,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="766" spans="1:7">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>24</v>
       </c>
@@ -18321,7 +18358,7 @@
         <v>0.83976462585033995</v>
       </c>
     </row>
-    <row r="767" spans="1:7">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>25</v>
       </c>
@@ -18344,7 +18381,7 @@
         <v>0.24957610294117599</v>
       </c>
     </row>
-    <row r="768" spans="1:7">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>26</v>
       </c>
@@ -18367,7 +18404,7 @@
         <v>0.64120521739130398</v>
       </c>
     </row>
-    <row r="769" spans="1:7">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>27</v>
       </c>
@@ -18390,7 +18427,7 @@
         <v>2.2568641975308602E-2</v>
       </c>
     </row>
-    <row r="770" spans="1:7">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>28</v>
       </c>
@@ -18413,7 +18450,7 @@
         <v>0.68466666666666698</v>
       </c>
     </row>
-    <row r="771" spans="1:7">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>29</v>
       </c>
@@ -18436,7 +18473,7 @@
         <v>0.65275423728813597</v>
       </c>
     </row>
-    <row r="772" spans="1:7">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>30</v>
       </c>
@@ -18459,7 +18496,7 @@
         <v>0.62175135135135096</v>
       </c>
     </row>
-    <row r="773" spans="1:7">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>31</v>
       </c>
@@ -18482,7 +18519,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="774" spans="1:7">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>32</v>
       </c>
@@ -18505,7 +18542,7 @@
         <v>0.94281967213114704</v>
       </c>
     </row>
-    <row r="775" spans="1:7">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>33</v>
       </c>
@@ -18528,7 +18565,7 @@
         <v>9.0580124223602496E-2</v>
       </c>
     </row>
-    <row r="776" spans="1:7">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>34</v>
       </c>
@@ -18551,7 +18588,7 @@
         <v>0.62175135135135096</v>
       </c>
     </row>
-    <row r="777" spans="1:7">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>35</v>
       </c>
@@ -18574,7 +18611,7 @@
         <v>0.90716336056009295</v>
       </c>
     </row>
-    <row r="778" spans="1:7">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>36</v>
       </c>
@@ -18597,7 +18634,7 @@
         <v>0.97059481865285002</v>
       </c>
     </row>
-    <row r="779" spans="1:7">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>37</v>
       </c>
@@ -18620,7 +18657,7 @@
         <v>0.85362757731958805</v>
       </c>
     </row>
-    <row r="780" spans="1:7">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>38</v>
       </c>
@@ -18643,7 +18680,7 @@
         <v>0.86849617346938801</v>
       </c>
     </row>
-    <row r="781" spans="1:7">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>39</v>
       </c>
@@ -18666,7 +18703,7 @@
         <v>0.207470564516129</v>
       </c>
     </row>
-    <row r="782" spans="1:7">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>40</v>
       </c>
@@ -18689,7 +18726,7 @@
         <v>0.50381132075471702</v>
       </c>
     </row>
-    <row r="783" spans="1:7">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>41</v>
       </c>
@@ -18712,7 +18749,7 @@
         <v>0.50602702702702695</v>
       </c>
     </row>
-    <row r="784" spans="1:7">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>42</v>
       </c>
@@ -18735,7 +18772,7 @@
         <v>3.0019999999999998E-4</v>
       </c>
     </row>
-    <row r="785" spans="1:7">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>43</v>
       </c>
@@ -18758,7 +18795,7 @@
         <v>0.63645070422535199</v>
       </c>
     </row>
-    <row r="786" spans="1:7">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>44</v>
       </c>
@@ -18781,7 +18818,7 @@
         <v>0.98616500994035805</v>
       </c>
     </row>
-    <row r="787" spans="1:7">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>45</v>
       </c>
@@ -18804,7 +18841,7 @@
         <v>0.44301960784313699</v>
       </c>
     </row>
-    <row r="788" spans="1:7">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>46</v>
       </c>
@@ -18827,7 +18864,7 @@
         <v>0.39605053191489398</v>
       </c>
     </row>
-    <row r="789" spans="1:7">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>47</v>
       </c>
@@ -18850,7 +18887,7 @@
         <v>0.29676521739130401</v>
       </c>
     </row>
-    <row r="790" spans="1:7">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>48</v>
       </c>
@@ -18873,7 +18910,7 @@
         <v>0.85136422976501303</v>
       </c>
     </row>
-    <row r="791" spans="1:7">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>49</v>
       </c>
@@ -18896,7 +18933,7 @@
         <v>0.354240579710145</v>
       </c>
     </row>
-    <row r="792" spans="1:7">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>50</v>
       </c>
@@ -18919,7 +18956,7 @@
         <v>0.88495471236230105</v>
       </c>
     </row>
-    <row r="793" spans="1:7">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>51</v>
       </c>
@@ -18942,7 +18979,7 @@
         <v>0.85136422976501303</v>
       </c>
     </row>
-    <row r="794" spans="1:7">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>52</v>
       </c>
@@ -18965,7 +19002,7 @@
         <v>6.8283740458015302E-2</v>
       </c>
     </row>
-    <row r="795" spans="1:7">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>53</v>
       </c>
@@ -18988,7 +19025,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="796" spans="1:7">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>54</v>
       </c>
@@ -19011,7 +19048,7 @@
         <v>0.66602475247524795</v>
       </c>
     </row>
-    <row r="797" spans="1:7">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>55</v>
       </c>
@@ -19034,7 +19071,7 @@
         <v>0.71874027993779199</v>
       </c>
     </row>
-    <row r="798" spans="1:7">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>56</v>
       </c>
@@ -19057,7 +19094,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="799" spans="1:7">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>57</v>
       </c>
@@ -19080,7 +19117,7 @@
         <v>0.77403687315634195</v>
       </c>
     </row>
-    <row r="800" spans="1:7">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>58</v>
       </c>
@@ -19103,7 +19140,7 @@
         <v>0.112228865979381</v>
       </c>
     </row>
-    <row r="801" spans="1:7">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>59</v>
       </c>
@@ -19126,7 +19163,7 @@
         <v>0.45140232558139498</v>
       </c>
     </row>
-    <row r="802" spans="1:7">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>60</v>
       </c>
@@ -19149,7 +19186,7 @@
         <v>0.39267647058823502</v>
       </c>
     </row>
-    <row r="803" spans="1:7">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>61</v>
       </c>
@@ -19172,7 +19209,7 @@
         <v>0.88661870503597096</v>
       </c>
     </row>
-    <row r="804" spans="1:7">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>62</v>
       </c>
@@ -19195,7 +19232,7 @@
         <v>6.9624558823529401E-2</v>
       </c>
     </row>
-    <row r="805" spans="1:7">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>63</v>
       </c>
@@ -19218,7 +19255,7 @@
         <v>2.1329999999999998E-2</v>
       </c>
     </row>
-    <row r="806" spans="1:7">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>64</v>
       </c>
@@ -19241,7 +19278,7 @@
         <v>1.7767099999999999E-6</v>
       </c>
     </row>
-    <row r="807" spans="1:7">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>65</v>
       </c>
@@ -19264,7 +19301,7 @@
         <v>0.22562277992277999</v>
       </c>
     </row>
-    <row r="808" spans="1:7">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>66</v>
       </c>
@@ -19287,7 +19324,7 @@
         <v>0.95506573275862106</v>
       </c>
     </row>
-    <row r="809" spans="1:7">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>67</v>
       </c>
@@ -19310,7 +19347,7 @@
         <v>1.3761799999999999E-2</v>
       </c>
     </row>
-    <row r="810" spans="1:7">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>68</v>
       </c>
@@ -19333,7 +19370,7 @@
         <v>0.94291157205240195</v>
       </c>
     </row>
-    <row r="811" spans="1:7">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>69</v>
       </c>
@@ -19356,7 +19393,7 @@
         <v>0.14629905660377401</v>
       </c>
     </row>
-    <row r="812" spans="1:7">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>70</v>
       </c>
@@ -19379,7 +19416,7 @@
         <v>0.22359488188976401</v>
       </c>
     </row>
-    <row r="813" spans="1:7">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>71</v>
       </c>
@@ -19402,7 +19439,7 @@
         <v>0.44704705882352902</v>
       </c>
     </row>
-    <row r="814" spans="1:7">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>72</v>
       </c>
@@ -19425,7 +19462,7 @@
         <v>0.54812909441233104</v>
       </c>
     </row>
-    <row r="815" spans="1:7">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>73</v>
       </c>
@@ -19448,7 +19485,7 @@
         <v>0.10325215053763399</v>
       </c>
     </row>
-    <row r="816" spans="1:7">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>0</v>
       </c>
@@ -19471,7 +19508,7 @@
         <v>0.76142301943198798</v>
       </c>
     </row>
-    <row r="817" spans="1:7">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>1</v>
       </c>
@@ -19494,7 +19531,7 @@
         <v>0.80210948905109503</v>
       </c>
     </row>
-    <row r="818" spans="1:7">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>2</v>
       </c>
@@ -19517,7 +19554,7 @@
         <v>0.44404106280193201</v>
       </c>
     </row>
-    <row r="819" spans="1:7">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>3</v>
       </c>
@@ -19540,7 +19577,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="820" spans="1:7">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>4</v>
       </c>
@@ -19563,7 +19600,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="821" spans="1:7">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>5</v>
       </c>
@@ -19586,7 +19623,7 @@
         <v>0.242887452471483</v>
       </c>
     </row>
-    <row r="822" spans="1:7">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>6</v>
       </c>
@@ -19609,7 +19646,7 @@
         <v>0.509290983606557</v>
       </c>
     </row>
-    <row r="823" spans="1:7">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>7</v>
       </c>
@@ -19632,7 +19669,7 @@
         <v>4.3393063063063099E-2</v>
       </c>
     </row>
-    <row r="824" spans="1:7">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>8</v>
       </c>
@@ -19655,7 +19692,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="825" spans="1:7">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>9</v>
       </c>
@@ -19678,7 +19715,7 @@
         <v>0.43530203045685301</v>
       </c>
     </row>
-    <row r="826" spans="1:7">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>10</v>
       </c>
@@ -19701,7 +19738,7 @@
         <v>0.30100559210526301</v>
       </c>
     </row>
-    <row r="827" spans="1:7">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>11</v>
       </c>
@@ -19724,7 +19761,7 @@
         <v>0.39202688172042999</v>
       </c>
     </row>
-    <row r="828" spans="1:7">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>12</v>
       </c>
@@ -19747,7 +19784,7 @@
         <v>0.814264285714286</v>
       </c>
     </row>
-    <row r="829" spans="1:7">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>13</v>
       </c>
@@ -19770,7 +19807,7 @@
         <v>1.18933225806452E-2</v>
       </c>
     </row>
-    <row r="830" spans="1:7">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>14</v>
       </c>
@@ -19793,7 +19830,7 @@
         <v>0.92702654867256595</v>
       </c>
     </row>
-    <row r="831" spans="1:7">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>15</v>
       </c>
@@ -19816,7 +19853,7 @@
         <v>0.97695329949238596</v>
       </c>
     </row>
-    <row r="832" spans="1:7">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>16</v>
       </c>
@@ -19839,7 +19876,7 @@
         <v>7.1376499999999997E-5</v>
       </c>
     </row>
-    <row r="833" spans="1:7">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>17</v>
       </c>
@@ -19862,7 +19899,7 @@
         <v>4.4794680851063797E-3</v>
       </c>
     </row>
-    <row r="834" spans="1:7">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>18</v>
       </c>
@@ -19885,7 +19922,7 @@
         <v>0.45852391799544401</v>
       </c>
     </row>
-    <row r="835" spans="1:7">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>19</v>
       </c>
@@ -19908,7 +19945,7 @@
         <v>2.19183421052632E-3</v>
       </c>
     </row>
-    <row r="836" spans="1:7">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>20</v>
       </c>
@@ -19931,7 +19968,7 @@
         <v>0.13395652173913</v>
       </c>
     </row>
-    <row r="837" spans="1:7">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>21</v>
       </c>
@@ -19954,7 +19991,7 @@
         <v>0.89923341232227505</v>
       </c>
     </row>
-    <row r="838" spans="1:7">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>22</v>
       </c>
@@ -19977,7 +20014,7 @@
         <v>4.7078407079646001E-2</v>
       </c>
     </row>
-    <row r="839" spans="1:7">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>23</v>
       </c>
@@ -20000,7 +20037,7 @@
         <v>0.53281980198019796</v>
       </c>
     </row>
-    <row r="840" spans="1:7">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>24</v>
       </c>
@@ -20023,7 +20060,7 @@
         <v>0.22562277992277999</v>
       </c>
     </row>
-    <row r="841" spans="1:7">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>25</v>
       </c>
@@ -20046,7 +20083,7 @@
         <v>0.22001343873517801</v>
       </c>
     </row>
-    <row r="842" spans="1:7">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>26</v>
       </c>
@@ -20069,7 +20106,7 @@
         <v>0.986083665338645</v>
       </c>
     </row>
-    <row r="843" spans="1:7">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>27</v>
       </c>
@@ -20092,7 +20129,7 @@
         <v>0.82817966573816104</v>
       </c>
     </row>
-    <row r="844" spans="1:7">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>28</v>
       </c>
@@ -20115,7 +20152,7 @@
         <v>0.64276034482758604</v>
       </c>
     </row>
-    <row r="845" spans="1:7">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>29</v>
       </c>
@@ -20138,7 +20175,7 @@
         <v>0.63782105263157896</v>
       </c>
     </row>
-    <row r="846" spans="1:7">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>30</v>
       </c>
@@ -20161,7 +20198,7 @@
         <v>0.28895254237288098</v>
       </c>
     </row>
-    <row r="847" spans="1:7">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>31</v>
       </c>
@@ -20184,7 +20221,7 @@
         <v>0.83124585635359105</v>
       </c>
     </row>
-    <row r="848" spans="1:7">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>32</v>
       </c>
@@ -20207,7 +20244,7 @@
         <v>0.41771761658031098</v>
       </c>
     </row>
-    <row r="849" spans="1:7">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>33</v>
       </c>
@@ -20230,7 +20267,7 @@
         <v>8.9862499999999998E-2</v>
       </c>
     </row>
-    <row r="850" spans="1:7">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>34</v>
       </c>
@@ -20253,7 +20290,7 @@
         <v>0.70666614420062701</v>
       </c>
     </row>
-    <row r="851" spans="1:7">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>35</v>
       </c>
@@ -20276,7 +20313,7 @@
         <v>0.50602702702702695</v>
       </c>
     </row>
-    <row r="852" spans="1:7">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>36</v>
       </c>
@@ -20299,7 +20336,7 @@
         <v>4.3040636363636399E-2</v>
       </c>
     </row>
-    <row r="853" spans="1:7">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>37</v>
       </c>
@@ -20322,7 +20359,7 @@
         <v>0.53281980198019796</v>
       </c>
     </row>
-    <row r="854" spans="1:7">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>38</v>
       </c>
@@ -20345,7 +20382,7 @@
         <v>0.43680000000000002</v>
       </c>
     </row>
-    <row r="855" spans="1:7">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>39</v>
       </c>
@@ -20368,7 +20405,7 @@
         <v>0.30100559210526301</v>
       </c>
     </row>
-    <row r="856" spans="1:7">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>40</v>
       </c>
@@ -20388,7 +20425,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="857" spans="1:7">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>41</v>
       </c>
@@ -20411,7 +20448,7 @@
         <v>0.83312038303693603</v>
       </c>
     </row>
-    <row r="858" spans="1:7">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>42</v>
       </c>
@@ -20434,7 +20471,7 @@
         <v>8.8534482758620696E-4</v>
       </c>
     </row>
-    <row r="859" spans="1:7">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>43</v>
       </c>
@@ -20457,7 +20494,7 @@
         <v>9.3986060606060601E-2</v>
       </c>
     </row>
-    <row r="860" spans="1:7">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>44</v>
       </c>
@@ -20480,7 +20517,7 @@
         <v>2.6164047619047601E-2</v>
       </c>
     </row>
-    <row r="861" spans="1:7">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>45</v>
       </c>
@@ -20503,7 +20540,7 @@
         <v>0.112706666666667</v>
       </c>
     </row>
-    <row r="862" spans="1:7">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>46</v>
       </c>
@@ -20526,7 +20563,7 @@
         <v>1.08255901639344E-2</v>
       </c>
     </row>
-    <row r="863" spans="1:7">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>47</v>
       </c>
@@ -20549,7 +20586,7 @@
         <v>0.85362757731958805</v>
       </c>
     </row>
-    <row r="864" spans="1:7">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>48</v>
       </c>
@@ -20572,7 +20609,7 @@
         <v>0.49323026315789498</v>
       </c>
     </row>
-    <row r="865" spans="1:7">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>49</v>
       </c>
@@ -20595,7 +20632,7 @@
         <v>0.96077695560253695</v>
       </c>
     </row>
-    <row r="866" spans="1:7">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>50</v>
       </c>
@@ -20618,7 +20655,7 @@
         <v>4.8760173913043499E-2</v>
       </c>
     </row>
-    <row r="867" spans="1:7">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>51</v>
       </c>
@@ -20641,7 +20678,7 @@
         <v>0.43033676092544998</v>
       </c>
     </row>
-    <row r="868" spans="1:7">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>52</v>
       </c>
@@ -20664,7 +20701,7 @@
         <v>0.92544111111111105</v>
       </c>
     </row>
-    <row r="869" spans="1:7">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>53</v>
       </c>
@@ -20687,7 +20724,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="870" spans="1:7">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>54</v>
       </c>
@@ -20710,7 +20747,7 @@
         <v>0.133560591133005</v>
       </c>
     </row>
-    <row r="871" spans="1:7">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>55</v>
       </c>
@@ -20733,7 +20770,7 @@
         <v>0.64624149659863905</v>
       </c>
     </row>
-    <row r="872" spans="1:7">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>56</v>
       </c>
@@ -20756,7 +20793,7 @@
         <v>0.22562277992277999</v>
       </c>
     </row>
-    <row r="873" spans="1:7">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>57</v>
       </c>
@@ -20779,7 +20816,7 @@
         <v>0.44404106280193201</v>
       </c>
     </row>
-    <row r="874" spans="1:7">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>58</v>
       </c>
@@ -20802,7 +20839,7 @@
         <v>1.4206833333333299E-4</v>
       </c>
     </row>
-    <row r="875" spans="1:7">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>59</v>
       </c>
@@ -20825,7 +20862,7 @@
         <v>0.96035425531914898</v>
       </c>
     </row>
-    <row r="876" spans="1:7">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>60</v>
       </c>
@@ -20848,7 +20885,7 @@
         <v>0.96772927597061897</v>
       </c>
     </row>
-    <row r="877" spans="1:7">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>61</v>
       </c>
@@ -20871,7 +20908,7 @@
         <v>2.2833633333333299E-8</v>
       </c>
     </row>
-    <row r="878" spans="1:7">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>62</v>
       </c>
@@ -20894,7 +20931,7 @@
         <v>0.40375461741424801</v>
       </c>
     </row>
-    <row r="879" spans="1:7">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>63</v>
       </c>
@@ -20917,7 +20954,7 @@
         <v>2.78097752808989E-2</v>
       </c>
     </row>
-    <row r="880" spans="1:7">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>64</v>
       </c>
@@ -20940,7 +20977,7 @@
         <v>9.8591999999999994E-4</v>
       </c>
     </row>
-    <row r="881" spans="1:7">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>65</v>
       </c>
@@ -20963,7 +21000,7 @@
         <v>0.67407328990227999</v>
       </c>
     </row>
-    <row r="882" spans="1:7">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>66</v>
       </c>
@@ -20986,7 +21023,7 @@
         <v>1.08862E-6</v>
       </c>
     </row>
-    <row r="883" spans="1:7">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>67</v>
       </c>
@@ -21009,7 +21046,7 @@
         <v>0.66661943986820404</v>
       </c>
     </row>
-    <row r="884" spans="1:7">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>68</v>
       </c>
@@ -21032,7 +21069,7 @@
         <v>0.29714533333333298</v>
       </c>
     </row>
-    <row r="885" spans="1:7">
+    <row r="885" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>69</v>
       </c>
@@ -21055,7 +21092,7 @@
         <v>6.2030800000000002E-6</v>
       </c>
     </row>
-    <row r="886" spans="1:7">
+    <row r="886" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>70</v>
       </c>
@@ -21078,7 +21115,7 @@
         <v>0.44704705882352902</v>
       </c>
     </row>
-    <row r="887" spans="1:7">
+    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>71</v>
       </c>
@@ -21101,7 +21138,7 @@
         <v>0.49331877729257601</v>
       </c>
     </row>
-    <row r="888" spans="1:7">
+    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>72</v>
       </c>
@@ -21124,7 +21161,7 @@
         <v>0.68738791732909399</v>
       </c>
     </row>
-    <row r="889" spans="1:7">
+    <row r="889" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>73</v>
       </c>
@@ -21147,7 +21184,7 @@
         <v>0.81242507204611003</v>
       </c>
     </row>
-    <row r="890" spans="1:7">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>0</v>
       </c>
@@ -21170,7 +21207,7 @@
         <v>0.50608865979381401</v>
       </c>
     </row>
-    <row r="891" spans="1:7">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>1</v>
       </c>
@@ -21193,7 +21230,7 @@
         <v>0.35708908045977</v>
       </c>
     </row>
-    <row r="892" spans="1:7">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>2</v>
       </c>
@@ -21216,7 +21253,7 @@
         <v>0.40539473684210497</v>
       </c>
     </row>
-    <row r="893" spans="1:7">
+    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>3</v>
       </c>
@@ -21239,7 +21276,7 @@
         <v>0.65291568296795999</v>
       </c>
     </row>
-    <row r="894" spans="1:7">
+    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>4</v>
       </c>
@@ -21262,7 +21299,7 @@
         <v>0.31564664536741199</v>
       </c>
     </row>
-    <row r="895" spans="1:7">
+    <row r="895" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>5</v>
       </c>
@@ -21285,7 +21322,7 @@
         <v>0.34436498516320502</v>
       </c>
     </row>
-    <row r="896" spans="1:7">
+    <row r="896" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>6</v>
       </c>
@@ -21308,7 +21345,7 @@
         <v>0.100949431818182</v>
       </c>
     </row>
-    <row r="897" spans="1:7">
+    <row r="897" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>7</v>
       </c>
@@ -21331,7 +21368,7 @@
         <v>2.08102631578947E-2</v>
       </c>
     </row>
-    <row r="898" spans="1:7">
+    <row r="898" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>8</v>
       </c>
@@ -21354,7 +21391,7 @@
         <v>0.49700642398286898</v>
       </c>
     </row>
-    <row r="899" spans="1:7">
+    <row r="899" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>9</v>
       </c>
@@ -21377,7 +21414,7 @@
         <v>9.9178857142857096E-2</v>
       </c>
     </row>
-    <row r="900" spans="1:7">
+    <row r="900" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>10</v>
       </c>
@@ -21400,7 +21437,7 @@
         <v>6.8747686567164207E-2</v>
       </c>
     </row>
-    <row r="901" spans="1:7">
+    <row r="901" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>11</v>
       </c>
@@ -21423,7 +21460,7 @@
         <v>0.36489398280802299</v>
       </c>
     </row>
-    <row r="902" spans="1:7">
+    <row r="902" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>12</v>
       </c>
@@ -21446,7 +21483,7 @@
         <v>0.32272499999999998</v>
       </c>
     </row>
-    <row r="903" spans="1:7">
+    <row r="903" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>13</v>
       </c>
@@ -21469,7 +21506,7 @@
         <v>0.55450190114068398</v>
       </c>
     </row>
-    <row r="904" spans="1:7">
+    <row r="904" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>14</v>
       </c>
@@ -21492,7 +21529,7 @@
         <v>0.43186666666666701</v>
       </c>
     </row>
-    <row r="905" spans="1:7">
+    <row r="905" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>15</v>
       </c>
@@ -21515,7 +21552,7 @@
         <v>0.83950953678474105</v>
       </c>
     </row>
-    <row r="906" spans="1:7">
+    <row r="906" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
         <v>16</v>
       </c>
@@ -21538,7 +21575,7 @@
         <v>8.3105921052631607E-2</v>
       </c>
     </row>
-    <row r="907" spans="1:7">
+    <row r="907" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>17</v>
       </c>
@@ -21561,7 +21598,7 @@
         <v>6.2862338709677404E-2</v>
       </c>
     </row>
-    <row r="908" spans="1:7">
+    <row r="908" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>18</v>
       </c>
@@ -21584,7 +21621,7 @@
         <v>0.60131040892193299</v>
       </c>
     </row>
-    <row r="909" spans="1:7">
+    <row r="909" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>19</v>
       </c>
@@ -21607,7 +21644,7 @@
         <v>0.93054143646408805</v>
       </c>
     </row>
-    <row r="910" spans="1:7">
+    <row r="910" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>20</v>
       </c>
@@ -21630,7 +21667,7 @@
         <v>0.97059481865285002</v>
       </c>
     </row>
-    <row r="911" spans="1:7">
+    <row r="911" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>21</v>
       </c>
@@ -21653,7 +21690,7 @@
         <v>0.46238235294117702</v>
       </c>
     </row>
-    <row r="912" spans="1:7">
+    <row r="912" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>22</v>
       </c>
@@ -21676,7 +21713,7 @@
         <v>0.51559591836734697</v>
       </c>
     </row>
-    <row r="913" spans="1:7">
+    <row r="913" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>23</v>
       </c>
@@ -21699,7 +21736,7 @@
         <v>0.503770526315789</v>
       </c>
     </row>
-    <row r="914" spans="1:7">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>24</v>
       </c>
@@ -21722,7 +21759,7 @@
         <v>0.15428447488584501</v>
       </c>
     </row>
-    <row r="915" spans="1:7">
+    <row r="915" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>25</v>
       </c>
@@ -21745,7 +21782,7 @@
         <v>0.64276034482758604</v>
       </c>
     </row>
-    <row r="916" spans="1:7">
+    <row r="916" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>26</v>
       </c>
@@ -21768,7 +21805,7 @@
         <v>0.88973985680190903</v>
       </c>
     </row>
-    <row r="917" spans="1:7">
+    <row r="917" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>27</v>
       </c>
@@ -21791,7 +21828,7 @@
         <v>0.95166450916936396</v>
       </c>
     </row>
-    <row r="918" spans="1:7">
+    <row r="918" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>28</v>
       </c>
@@ -21814,7 +21851,7 @@
         <v>0.77366322008862598</v>
       </c>
     </row>
-    <row r="919" spans="1:7">
+    <row r="919" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>29</v>
       </c>
@@ -21837,7 +21874,7 @@
         <v>0.247255094339623</v>
       </c>
     </row>
-    <row r="920" spans="1:7">
+    <row r="920" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>30</v>
       </c>
@@ -21857,7 +21894,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="921" spans="1:7">
+    <row r="921" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>31</v>
       </c>
@@ -21880,7 +21917,7 @@
         <v>0.62175135135135096</v>
       </c>
     </row>
-    <row r="922" spans="1:7">
+    <row r="922" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>32</v>
       </c>
@@ -21903,7 +21940,7 @@
         <v>0.52999799196787101</v>
       </c>
     </row>
-    <row r="923" spans="1:7">
+    <row r="923" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>33</v>
       </c>
@@ -21926,7 +21963,7 @@
         <v>8.3233986928104603E-2</v>
       </c>
     </row>
-    <row r="924" spans="1:7">
+    <row r="924" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>34</v>
       </c>
@@ -21949,7 +21986,7 @@
         <v>0.34634897360703798</v>
       </c>
     </row>
-    <row r="925" spans="1:7">
+    <row r="925" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>35</v>
       </c>
@@ -21972,7 +22009,7 @@
         <v>0.44871261682243002</v>
       </c>
     </row>
-    <row r="926" spans="1:7">
+    <row r="926" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>36</v>
       </c>
@@ -21995,7 +22032,7 @@
         <v>0.31044934640522898</v>
       </c>
     </row>
-    <row r="927" spans="1:7">
+    <row r="927" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>37</v>
       </c>
@@ -22018,7 +22055,7 @@
         <v>0.44301960784313699</v>
       </c>
     </row>
-    <row r="928" spans="1:7">
+    <row r="928" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>38</v>
       </c>
@@ -22041,7 +22078,7 @@
         <v>0.50608865979381401</v>
       </c>
     </row>
-    <row r="929" spans="1:7">
+    <row r="929" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>39</v>
       </c>
@@ -22064,7 +22101,7 @@
         <v>1.44246818181818E-2</v>
       </c>
     </row>
-    <row r="930" spans="1:7">
+    <row r="930" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>40</v>
       </c>
@@ -22087,7 +22124,7 @@
         <v>0.267240860215054</v>
       </c>
     </row>
-    <row r="931" spans="1:7">
+    <row r="931" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>41</v>
       </c>
@@ -22110,7 +22147,7 @@
         <v>9.9178857142857096E-2</v>
       </c>
     </row>
-    <row r="932" spans="1:7">
+    <row r="932" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>42</v>
       </c>
@@ -22133,7 +22170,7 @@
         <v>0.17325043478260899</v>
       </c>
     </row>
-    <row r="933" spans="1:7">
+    <row r="933" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>43</v>
       </c>
@@ -22156,7 +22193,7 @@
         <v>3.8537920792079197E-2</v>
       </c>
     </row>
-    <row r="934" spans="1:7">
+    <row r="934" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>44</v>
       </c>
@@ -22179,7 +22216,7 @@
         <v>9.2790350877193003E-3</v>
       </c>
     </row>
-    <row r="935" spans="1:7">
+    <row r="935" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>45</v>
       </c>
@@ -22202,7 +22239,7 @@
         <v>7.99543624161074E-2</v>
       </c>
     </row>
-    <row r="936" spans="1:7">
+    <row r="936" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>46</v>
       </c>
@@ -22225,7 +22262,7 @@
         <v>0.987421936758893</v>
       </c>
     </row>
-    <row r="937" spans="1:7">
+    <row r="937" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>47</v>
       </c>
@@ -22248,7 +22285,7 @@
         <v>1.15202608695652E-4</v>
       </c>
     </row>
-    <row r="938" spans="1:7">
+    <row r="938" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>48</v>
       </c>
@@ -22271,7 +22308,7 @@
         <v>0.83312038303693603</v>
       </c>
     </row>
-    <row r="939" spans="1:7">
+    <row r="939" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>49</v>
       </c>
@@ -22294,7 +22331,7 @@
         <v>0.32618553459119498</v>
       </c>
     </row>
-    <row r="940" spans="1:7">
+    <row r="940" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>50</v>
       </c>
@@ -22317,7 +22354,7 @@
         <v>4.2221111111111098E-2</v>
       </c>
     </row>
-    <row r="941" spans="1:7">
+    <row r="941" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>51</v>
       </c>
@@ -22340,7 +22377,7 @@
         <v>7.9800675675675697E-2</v>
       </c>
     </row>
-    <row r="942" spans="1:7">
+    <row r="942" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>52</v>
       </c>
@@ -22363,7 +22400,7 @@
         <v>0.63806631762652699</v>
       </c>
     </row>
-    <row r="943" spans="1:7">
+    <row r="943" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>53</v>
       </c>
@@ -22386,7 +22423,7 @@
         <v>1.6072549999999999E-9</v>
       </c>
     </row>
-    <row r="944" spans="1:7">
+    <row r="944" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>54</v>
       </c>
@@ -22409,7 +22446,7 @@
         <v>0.83258847736625496</v>
       </c>
     </row>
-    <row r="945" spans="1:7">
+    <row r="945" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>55</v>
       </c>
@@ -22432,7 +22469,7 @@
         <v>0.66291304347826097</v>
       </c>
     </row>
-    <row r="946" spans="1:7">
+    <row r="946" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>56</v>
       </c>
@@ -22455,7 +22492,7 @@
         <v>4.0346428571428602E-7</v>
       </c>
     </row>
-    <row r="947" spans="1:7">
+    <row r="947" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>57</v>
       </c>
@@ -22478,7 +22515,7 @@
         <v>0.61957952468007305</v>
       </c>
     </row>
-    <row r="948" spans="1:7">
+    <row r="948" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>58</v>
       </c>
@@ -22501,7 +22538,7 @@
         <v>0.27458736842105302</v>
       </c>
     </row>
-    <row r="949" spans="1:7">
+    <row r="949" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>59</v>
       </c>
@@ -22524,7 +22561,7 @@
         <v>7.0268421052631602E-5</v>
       </c>
     </row>
-    <row r="950" spans="1:7">
+    <row r="950" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>60</v>
       </c>
@@ -22547,7 +22584,7 @@
         <v>0.53947470817120602</v>
       </c>
     </row>
-    <row r="951" spans="1:7">
+    <row r="951" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>61</v>
       </c>
@@ -22570,7 +22607,7 @@
         <v>2.19183421052632E-3</v>
       </c>
     </row>
-    <row r="952" spans="1:7">
+    <row r="952" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>62</v>
       </c>
@@ -22593,7 +22630,7 @@
         <v>9.2790350877193003E-3</v>
       </c>
     </row>
-    <row r="953" spans="1:7">
+    <row r="953" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>63</v>
       </c>
@@ -22616,7 +22653,7 @@
         <v>1.32265151515152E-3</v>
       </c>
     </row>
-    <row r="954" spans="1:7">
+    <row r="954" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>64</v>
       </c>
@@ -22639,7 +22676,7 @@
         <v>1.1114422222222201E-6</v>
       </c>
     </row>
-    <row r="955" spans="1:7">
+    <row r="955" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>65</v>
       </c>
@@ -22662,7 +22699,7 @@
         <v>0.121891414141414</v>
       </c>
     </row>
-    <row r="956" spans="1:7">
+    <row r="956" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>66</v>
       </c>
@@ -22685,7 +22722,7 @@
         <v>2.1329999999999998E-2</v>
       </c>
     </row>
-    <row r="957" spans="1:7">
+    <row r="957" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>67</v>
       </c>
@@ -22708,7 +22745,7 @@
         <v>0.53281980198019796</v>
       </c>
     </row>
-    <row r="958" spans="1:7">
+    <row r="958" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>68</v>
       </c>
@@ -22731,7 +22768,7 @@
         <v>0.83205364511691904</v>
       </c>
     </row>
-    <row r="959" spans="1:7">
+    <row r="959" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>69</v>
       </c>
@@ -22754,7 +22791,7 @@
         <v>0.85021024967148495</v>
       </c>
     </row>
-    <row r="960" spans="1:7">
+    <row r="960" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>70</v>
       </c>
@@ -22777,7 +22814,7 @@
         <v>0.94680043383947898</v>
       </c>
     </row>
-    <row r="961" spans="1:7">
+    <row r="961" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>71</v>
       </c>
@@ -22800,7 +22837,7 @@
         <v>0.39202688172042999</v>
       </c>
     </row>
-    <row r="962" spans="1:7">
+    <row r="962" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>72</v>
       </c>
@@ -22823,7 +22860,7 @@
         <v>0.85362757731958805</v>
       </c>
     </row>
-    <row r="963" spans="1:7">
+    <row r="963" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>73</v>
       </c>
@@ -22846,7 +22883,7 @@
         <v>0.10325215053763399</v>
       </c>
     </row>
-    <row r="964" spans="1:7">
+    <row r="964" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>0</v>
       </c>
@@ -22869,7 +22906,7 @@
         <v>0.112228865979381</v>
       </c>
     </row>
-    <row r="965" spans="1:7">
+    <row r="965" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>1</v>
       </c>
@@ -22892,7 +22929,7 @@
         <v>0.111258333333333</v>
       </c>
     </row>
-    <row r="966" spans="1:7">
+    <row r="966" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>2</v>
       </c>
@@ -22915,7 +22952,7 @@
         <v>0.66291304347826097</v>
       </c>
     </row>
-    <row r="967" spans="1:7">
+    <row r="967" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>3</v>
       </c>
@@ -22938,7 +22975,7 @@
         <v>0.64120521739130398</v>
       </c>
     </row>
-    <row r="968" spans="1:7">
+    <row r="968" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>4</v>
       </c>
@@ -22961,7 +22998,7 @@
         <v>0.987382789317507</v>
       </c>
     </row>
-    <row r="969" spans="1:7">
+    <row r="969" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>5</v>
       </c>
@@ -22984,7 +23021,7 @@
         <v>0.13335671641791</v>
       </c>
     </row>
-    <row r="970" spans="1:7">
+    <row r="970" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>6</v>
       </c>
@@ -23007,7 +23044,7 @@
         <v>0.97059481865285002</v>
       </c>
     </row>
-    <row r="971" spans="1:7">
+    <row r="971" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>7</v>
       </c>
@@ -23030,7 +23067,7 @@
         <v>0.99496881091617895</v>
       </c>
     </row>
-    <row r="972" spans="1:7">
+    <row r="972" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>8</v>
       </c>
@@ -23053,7 +23090,7 @@
         <v>0.76948813056379795</v>
       </c>
     </row>
-    <row r="973" spans="1:7">
+    <row r="973" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
         <v>9</v>
       </c>
@@ -23076,7 +23113,7 @@
         <v>0.97059481865285002</v>
       </c>
     </row>
-    <row r="974" spans="1:7">
+    <row r="974" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>10</v>
       </c>
@@ -23099,7 +23136,7 @@
         <v>0.86657234314980802</v>
       </c>
     </row>
-    <row r="975" spans="1:7">
+    <row r="975" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>11</v>
       </c>
@@ -23122,7 +23159,7 @@
         <v>0.39202688172042999</v>
       </c>
     </row>
-    <row r="976" spans="1:7">
+    <row r="976" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>12</v>
       </c>
@@ -23145,7 +23182,7 @@
         <v>0.74984857571214403</v>
       </c>
     </row>
-    <row r="977" spans="1:7">
+    <row r="977" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>13</v>
       </c>
@@ -23168,7 +23205,7 @@
         <v>0.92702654867256595</v>
       </c>
     </row>
-    <row r="978" spans="1:7">
+    <row r="978" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
         <v>14</v>
       </c>
@@ -23191,7 +23228,7 @@
         <v>0.90730303030302994</v>
       </c>
     </row>
-    <row r="979" spans="1:7">
+    <row r="979" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>15</v>
       </c>
@@ -23214,7 +23251,7 @@
         <v>0.89405106888360997</v>
       </c>
     </row>
-    <row r="980" spans="1:7">
+    <row r="980" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>16</v>
       </c>
@@ -23237,7 +23274,7 @@
         <v>0.481690265486726</v>
       </c>
     </row>
-    <row r="981" spans="1:7">
+    <row r="981" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>17</v>
       </c>
@@ -23260,7 +23297,7 @@
         <v>0.41771761658031098</v>
       </c>
     </row>
-    <row r="982" spans="1:7">
+    <row r="982" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>18</v>
       </c>
@@ -23283,7 +23320,7 @@
         <v>0.45197465437787998</v>
       </c>
     </row>
-    <row r="983" spans="1:7">
+    <row r="983" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>19</v>
       </c>
@@ -23306,7 +23343,7 @@
         <v>0.51872912423625295</v>
       </c>
     </row>
-    <row r="984" spans="1:7">
+    <row r="984" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>20</v>
       </c>
@@ -23329,7 +23366,7 @@
         <v>0.394368</v>
       </c>
     </row>
-    <row r="985" spans="1:7">
+    <row r="985" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>21</v>
       </c>
@@ -23352,7 +23389,7 @@
         <v>0.91977262180974495</v>
       </c>
     </row>
-    <row r="986" spans="1:7">
+    <row r="986" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>22</v>
       </c>
@@ -23375,7 +23412,7 @@
         <v>0.85136422976501303</v>
       </c>
     </row>
-    <row r="987" spans="1:7">
+    <row r="987" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>23</v>
       </c>
@@ -23398,7 +23435,7 @@
         <v>0.337177710843374</v>
       </c>
     </row>
-    <row r="988" spans="1:7">
+    <row r="988" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>24</v>
       </c>
@@ -23421,7 +23458,7 @@
         <v>0.97848844221105502</v>
       </c>
     </row>
-    <row r="989" spans="1:7">
+    <row r="989" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>25</v>
       </c>
@@ -23444,7 +23481,7 @@
         <v>4.8782499999999998E-3</v>
       </c>
     </row>
-    <row r="990" spans="1:7">
+    <row r="990" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>26</v>
       </c>
@@ -23467,7 +23504,7 @@
         <v>8.4694155844155794E-2</v>
       </c>
     </row>
-    <row r="991" spans="1:7">
+    <row r="991" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>27</v>
       </c>
@@ -23490,7 +23527,7 @@
         <v>0.49323026315789498</v>
       </c>
     </row>
-    <row r="992" spans="1:7">
+    <row r="992" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>28</v>
       </c>
@@ -23513,7 +23550,7 @@
         <v>0.89953546099290804</v>
       </c>
     </row>
-    <row r="993" spans="1:7">
+    <row r="993" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>29</v>
       </c>
@@ -23536,7 +23573,7 @@
         <v>0.66602475247524795</v>
       </c>
     </row>
-    <row r="994" spans="1:7">
+    <row r="994" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>30</v>
       </c>
@@ -23559,7 +23596,7 @@
         <v>0.34634897360703798</v>
       </c>
     </row>
-    <row r="995" spans="1:7">
+    <row r="995" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>31</v>
       </c>
@@ -23582,7 +23619,7 @@
         <v>0.47311235955056202</v>
       </c>
     </row>
-    <row r="996" spans="1:7">
+    <row r="996" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>32</v>
       </c>
@@ -23605,7 +23642,7 @@
         <v>0.86849617346938801</v>
       </c>
     </row>
-    <row r="997" spans="1:7">
+    <row r="997" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>33</v>
       </c>
@@ -23628,7 +23665,7 @@
         <v>0.88818301435406699</v>
       </c>
     </row>
-    <row r="998" spans="1:7">
+    <row r="998" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>34</v>
       </c>
@@ -23651,7 +23688,7 @@
         <v>0.64624149659863905</v>
       </c>
     </row>
-    <row r="999" spans="1:7">
+    <row r="999" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>35</v>
       </c>
@@ -23674,7 +23711,7 @@
         <v>4.0882500000000002E-2</v>
       </c>
     </row>
-    <row r="1000" spans="1:7">
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>36</v>
       </c>
@@ -23697,7 +23734,7 @@
         <v>0.10325215053763399</v>
       </c>
     </row>
-    <row r="1001" spans="1:7">
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>37</v>
       </c>
@@ -23720,7 +23757,7 @@
         <v>0.66046127946127997</v>
       </c>
     </row>
-    <row r="1002" spans="1:7">
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>38</v>
       </c>
@@ -23743,7 +23780,7 @@
         <v>0.52597368421052604</v>
       </c>
     </row>
-    <row r="1003" spans="1:7">
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>39</v>
       </c>
@@ -23766,7 +23803,7 @@
         <v>0.44704705882352902</v>
       </c>
     </row>
-    <row r="1004" spans="1:7">
+    <row r="1004" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>40</v>
       </c>
@@ -23789,7 +23826,7 @@
         <v>0.181157510729614</v>
       </c>
     </row>
-    <row r="1005" spans="1:7">
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>41</v>
       </c>
@@ -23812,7 +23849,7 @@
         <v>0.64276034482758604</v>
       </c>
     </row>
-    <row r="1006" spans="1:7">
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
         <v>42</v>
       </c>
@@ -23835,7 +23872,7 @@
         <v>0.84126595744680799</v>
       </c>
     </row>
-    <row r="1007" spans="1:7">
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>43</v>
       </c>
@@ -23858,7 +23895,7 @@
         <v>0.207063157894737</v>
       </c>
     </row>
-    <row r="1008" spans="1:7">
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>44</v>
       </c>
@@ -23881,7 +23918,7 @@
         <v>0.93558571428571402</v>
       </c>
     </row>
-    <row r="1009" spans="1:7">
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>45</v>
       </c>
@@ -23904,7 +23941,7 @@
         <v>0.36657790368271997</v>
       </c>
     </row>
-    <row r="1010" spans="1:7">
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>46</v>
       </c>
@@ -23927,7 +23964,7 @@
         <v>1.7444931506849299E-2</v>
       </c>
     </row>
-    <row r="1011" spans="1:7">
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>47</v>
       </c>
@@ -23950,7 +23987,7 @@
         <v>3.7121770833333297E-2</v>
       </c>
     </row>
-    <row r="1012" spans="1:7">
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>48</v>
       </c>
@@ -23973,7 +24010,7 @@
         <v>0.84175862068965501</v>
       </c>
     </row>
-    <row r="1013" spans="1:7">
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>49</v>
       </c>
@@ -23996,7 +24033,7 @@
         <v>0.33291131498470899</v>
       </c>
     </row>
-    <row r="1014" spans="1:7">
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>50</v>
       </c>
@@ -24019,7 +24056,7 @@
         <v>1.8349066666666702E-2</v>
       </c>
     </row>
-    <row r="1015" spans="1:7">
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>51</v>
       </c>
@@ -24042,7 +24079,7 @@
         <v>0.83124585635359105</v>
       </c>
     </row>
-    <row r="1016" spans="1:7">
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>52</v>
       </c>
@@ -24065,7 +24102,7 @@
         <v>0.88495471236230105</v>
       </c>
     </row>
-    <row r="1017" spans="1:7">
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>53</v>
       </c>
@@ -24088,7 +24125,7 @@
         <v>3.4404499999999998E-7</v>
       </c>
     </row>
-    <row r="1018" spans="1:7">
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>54</v>
       </c>
@@ -24111,7 +24148,7 @@
         <v>0.63645070422535199</v>
       </c>
     </row>
-    <row r="1019" spans="1:7">
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>55</v>
       </c>
@@ -24134,7 +24171,7 @@
         <v>0.63255929203539796</v>
       </c>
     </row>
-    <row r="1020" spans="1:7">
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>56</v>
       </c>
@@ -24157,7 +24194,7 @@
         <v>2.2568641975308602E-2</v>
       </c>
     </row>
-    <row r="1021" spans="1:7">
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>57</v>
       </c>
@@ -24180,7 +24217,7 @@
         <v>0.62175135135135096</v>
       </c>
     </row>
-    <row r="1022" spans="1:7">
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>58</v>
       </c>
@@ -24203,7 +24240,7 @@
         <v>0.81547301136363604</v>
       </c>
     </row>
-    <row r="1023" spans="1:7">
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>59</v>
       </c>
@@ -24226,7 +24263,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="1024" spans="1:7">
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>60</v>
       </c>
@@ -24249,7 +24286,7 @@
         <v>0.693305993690852</v>
       </c>
     </row>
-    <row r="1025" spans="1:7">
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>61</v>
       </c>
@@ -24272,7 +24309,7 @@
         <v>0.90716336056009295</v>
       </c>
     </row>
-    <row r="1026" spans="1:7">
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>62</v>
       </c>
@@ -24295,7 +24332,7 @@
         <v>9.9178857142857096E-2</v>
       </c>
     </row>
-    <row r="1027" spans="1:7">
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>63</v>
       </c>
@@ -24318,7 +24355,7 @@
         <v>5.7877542372881299E-2</v>
       </c>
     </row>
-    <row r="1028" spans="1:7">
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>64</v>
       </c>
@@ -24341,7 +24378,7 @@
         <v>0.81211544011544001</v>
       </c>
     </row>
-    <row r="1029" spans="1:7">
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>65</v>
       </c>
@@ -24364,7 +24401,7 @@
         <v>0.50262076271186396</v>
       </c>
     </row>
-    <row r="1030" spans="1:7">
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>66</v>
       </c>
@@ -24387,7 +24424,7 @@
         <v>0.96077695560253695</v>
       </c>
     </row>
-    <row r="1031" spans="1:7">
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>67</v>
       </c>
@@ -24410,7 +24447,7 @@
         <v>1.7444931506849299E-2</v>
       </c>
     </row>
-    <row r="1032" spans="1:7">
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>68</v>
       </c>
@@ -24433,7 +24470,7 @@
         <v>0.92453555045871605</v>
       </c>
     </row>
-    <row r="1033" spans="1:7">
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>69</v>
       </c>
@@ -24456,7 +24493,7 @@
         <v>0.60255719557195597</v>
       </c>
     </row>
-    <row r="1034" spans="1:7">
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>70</v>
       </c>
@@ -24479,7 +24516,7 @@
         <v>0.88299261992619904</v>
       </c>
     </row>
-    <row r="1035" spans="1:7">
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>71</v>
       </c>
@@ -24502,7 +24539,7 @@
         <v>0.97059481865285002</v>
       </c>
     </row>
-    <row r="1036" spans="1:7">
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>72</v>
       </c>
@@ -24525,7 +24562,7 @@
         <v>0.31564664536741199</v>
       </c>
     </row>
-    <row r="1037" spans="1:7">
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>73</v>
       </c>
@@ -24551,10 +24588,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>